--- a/BackTest/2020-01-11 BackTest TRV.xlsx
+++ b/BackTest/2020-01-11 BackTest TRV.xlsx
@@ -1816,13 +1816,17 @@
         <v>12.28166666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K41" t="n">
+        <v>11.89</v>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1851,14 +1855,22 @@
         <v>12.27766666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +1898,22 @@
         <v>12.27099999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K43" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +1941,22 @@
         <v>12.26433333333332</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +1990,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2031,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2072,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2113,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2154,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2195,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2172,8 +2236,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,8 +2277,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2318,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2400,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2564,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2605,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2687,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2728,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2769,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2810,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +2851,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +2892,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +2933,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +2974,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +3015,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +3056,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3097,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3138,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3179,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3009,13 +3217,19 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>1.055555088309504</v>
       </c>
     </row>
     <row r="76">
@@ -3044,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3079,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3149,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3184,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3219,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3254,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3289,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3779,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -6576,17 +6790,13 @@
         <v>12.02616666666666</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K177" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
@@ -6615,22 +6825,14 @@
         <v>12.01249999999999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K178" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6658,22 +6860,14 @@
         <v>12.00583333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K179" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6701,22 +6895,14 @@
         <v>12.00016666666666</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K180" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6744,22 +6930,14 @@
         <v>11.99183333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K181" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6787,22 +6965,14 @@
         <v>11.98499999999999</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="K182" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6830,22 +7000,14 @@
         <v>11.97916666666666</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="K183" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6873,22 +7035,14 @@
         <v>11.97083333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K184" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6916,22 +7070,14 @@
         <v>11.9625</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K185" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6959,22 +7105,14 @@
         <v>11.95566666666666</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="K186" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7008,16 +7146,12 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>11.83</v>
+        <v>11.79</v>
       </c>
       <c r="K187" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.79</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7045,20 +7179,18 @@
         <v>11.94133333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>11.85</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>11.69</v>
+        <v>11.79</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M188" t="n">
@@ -7088,20 +7220,18 @@
         <v>11.93666666666666</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>11.85</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>11.69</v>
+        <v>11.79</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M189" t="n">
@@ -7131,22 +7261,14 @@
         <v>11.93049999999999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K190" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7174,22 +7296,14 @@
         <v>11.92433333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K191" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7217,22 +7331,14 @@
         <v>11.91966666666666</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K192" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7260,22 +7366,14 @@
         <v>11.91499999999999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K193" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7303,22 +7401,14 @@
         <v>11.91283333333332</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K194" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7352,14 +7442,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7393,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7434,14 +7512,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7475,14 +7547,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7516,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7557,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7598,14 +7652,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7639,14 +7687,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7680,14 +7722,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7721,14 +7757,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7762,14 +7792,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7803,14 +7827,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7844,14 +7862,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7885,14 +7897,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7926,14 +7932,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7967,14 +7967,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8008,14 +8002,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8049,14 +8037,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8090,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8131,14 +8107,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8172,14 +8142,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8213,14 +8177,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8254,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8295,14 +8247,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8336,14 +8282,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8377,14 +8317,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8418,14 +8352,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8459,14 +8387,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8500,14 +8422,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8541,14 +8457,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8582,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8623,14 +8527,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8664,14 +8562,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8705,14 +8597,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8746,14 +8632,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8787,14 +8667,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8828,14 +8702,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8869,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8910,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8951,14 +8807,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8992,14 +8842,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9033,14 +8877,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9074,14 +8912,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9115,14 +8947,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9156,14 +8982,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9197,14 +9017,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9238,14 +9052,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9279,14 +9087,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9320,14 +9122,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9361,14 +9157,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9402,14 +9192,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9443,14 +9227,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9484,14 +9262,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9525,14 +9297,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9566,14 +9332,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9607,14 +9367,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9648,14 +9402,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9689,14 +9437,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9730,14 +9472,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9771,14 +9507,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9812,14 +9542,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9853,14 +9577,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9894,14 +9612,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9935,14 +9647,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9976,14 +9682,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10017,14 +9717,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10058,14 +9752,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10099,14 +9787,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10140,14 +9822,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10181,14 +9857,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-11 BackTest TRV.xlsx
+++ b/BackTest/2020-01-11 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.8</v>
+        <v>12.63</v>
       </c>
       <c r="C2" t="n">
         <v>12.8</v>
@@ -442,13 +442,13 @@
         <v>12.8</v>
       </c>
       <c r="E2" t="n">
-        <v>12.8</v>
+        <v>12.63</v>
       </c>
       <c r="F2" t="n">
-        <v>1440.7409</v>
+        <v>30906.4673</v>
       </c>
       <c r="G2" t="n">
-        <v>12.33433333333334</v>
+        <v>12.32583333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.89</v>
+        <v>12.8</v>
       </c>
       <c r="C3" t="n">
-        <v>12.89</v>
+        <v>12.8</v>
       </c>
       <c r="D3" t="n">
-        <v>12.89</v>
+        <v>12.8</v>
       </c>
       <c r="E3" t="n">
-        <v>12.89</v>
+        <v>12.8</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>1440.7409</v>
       </c>
       <c r="G3" t="n">
-        <v>12.33416666666667</v>
+        <v>12.33433333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>12.89</v>
       </c>
       <c r="F4" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>12.34816666666667</v>
+        <v>12.33416666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>12.89</v>
       </c>
       <c r="F5" t="n">
-        <v>3826.0531</v>
+        <v>150</v>
       </c>
       <c r="G5" t="n">
-        <v>12.35766666666667</v>
+        <v>12.34816666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>12.89</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="E6" t="n">
         <v>12.89</v>
       </c>
       <c r="F6" t="n">
-        <v>61634.3575</v>
+        <v>3826.0531</v>
       </c>
       <c r="G6" t="n">
-        <v>12.36733333333333</v>
+        <v>12.35766666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="C7" t="n">
         <v>12.9</v>
@@ -617,13 +617,13 @@
         <v>12.9</v>
       </c>
       <c r="E7" t="n">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="F7" t="n">
-        <v>2136.4194</v>
+        <v>61634.3575</v>
       </c>
       <c r="G7" t="n">
-        <v>12.37566666666667</v>
+        <v>12.36733333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.53</v>
+        <v>12.9</v>
       </c>
       <c r="C8" t="n">
-        <v>12.53</v>
+        <v>12.9</v>
       </c>
       <c r="D8" t="n">
-        <v>12.53</v>
+        <v>12.9</v>
       </c>
       <c r="E8" t="n">
-        <v>12.53</v>
+        <v>12.9</v>
       </c>
       <c r="F8" t="n">
-        <v>380.6537</v>
+        <v>2136.4194</v>
       </c>
       <c r="G8" t="n">
-        <v>12.37633333333333</v>
+        <v>12.37566666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.9</v>
+        <v>12.53</v>
       </c>
       <c r="C9" t="n">
-        <v>12.9</v>
+        <v>12.53</v>
       </c>
       <c r="D9" t="n">
-        <v>12.9</v>
+        <v>12.53</v>
       </c>
       <c r="E9" t="n">
-        <v>12.9</v>
+        <v>12.53</v>
       </c>
       <c r="F9" t="n">
-        <v>335.0072</v>
+        <v>380.6537</v>
       </c>
       <c r="G9" t="n">
-        <v>12.39116666666667</v>
+        <v>12.37633333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.89</v>
+        <v>12.9</v>
       </c>
       <c r="C10" t="n">
-        <v>12.89</v>
+        <v>12.9</v>
       </c>
       <c r="D10" t="n">
-        <v>12.89</v>
+        <v>12.9</v>
       </c>
       <c r="E10" t="n">
-        <v>12.89</v>
+        <v>12.9</v>
       </c>
       <c r="F10" t="n">
-        <v>5970.6172</v>
+        <v>335.0072</v>
       </c>
       <c r="G10" t="n">
-        <v>12.40583333333333</v>
+        <v>12.39116666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.7</v>
+        <v>12.89</v>
       </c>
       <c r="C11" t="n">
-        <v>12.7</v>
+        <v>12.89</v>
       </c>
       <c r="D11" t="n">
-        <v>12.7</v>
+        <v>12.89</v>
       </c>
       <c r="E11" t="n">
-        <v>12.7</v>
+        <v>12.89</v>
       </c>
       <c r="F11" t="n">
-        <v>3484.2286</v>
+        <v>5970.6172</v>
       </c>
       <c r="G11" t="n">
-        <v>12.41833333333333</v>
+        <v>12.40583333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C12" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D12" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E12" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>3484.2286</v>
       </c>
       <c r="G12" t="n">
-        <v>12.42783333333333</v>
+        <v>12.41833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C13" t="n">
-        <v>12.54</v>
+        <v>12.8</v>
       </c>
       <c r="D13" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E13" t="n">
-        <v>12.54</v>
+        <v>12.8</v>
       </c>
       <c r="F13" t="n">
-        <v>57103.6084</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>12.43683333333333</v>
+        <v>12.42783333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.55</v>
+        <v>12.7</v>
       </c>
       <c r="C14" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="D14" t="n">
-        <v>12.55</v>
+        <v>12.7</v>
       </c>
       <c r="E14" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="F14" t="n">
-        <v>14495.2764</v>
+        <v>57103.6084</v>
       </c>
       <c r="G14" t="n">
-        <v>12.44083333333333</v>
+        <v>12.43683333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C15" t="n">
         <v>12.53</v>
       </c>
-      <c r="C15" t="n">
-        <v>12.36</v>
-      </c>
       <c r="D15" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E15" t="n">
         <v>12.53</v>
       </c>
-      <c r="E15" t="n">
-        <v>12.18</v>
-      </c>
       <c r="F15" t="n">
-        <v>26671.9862</v>
+        <v>14495.2764</v>
       </c>
       <c r="G15" t="n">
-        <v>12.4475</v>
+        <v>12.44083333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="E16" t="n">
         <v>12.18</v>
       </c>
-      <c r="C16" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.15</v>
-      </c>
       <c r="F16" t="n">
-        <v>34280.093</v>
+        <v>26671.9862</v>
       </c>
       <c r="G16" t="n">
-        <v>12.44516666666666</v>
+        <v>12.4475</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.15</v>
+        <v>12.18</v>
       </c>
       <c r="C17" t="n">
         <v>12.15</v>
       </c>
       <c r="D17" t="n">
-        <v>12.15</v>
+        <v>12.18</v>
       </c>
       <c r="E17" t="n">
         <v>12.15</v>
       </c>
       <c r="F17" t="n">
-        <v>3354.5545</v>
+        <v>34280.093</v>
       </c>
       <c r="G17" t="n">
-        <v>12.44283333333333</v>
+        <v>12.44516666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>12.15</v>
       </c>
       <c r="C18" t="n">
-        <v>12.1</v>
+        <v>12.15</v>
       </c>
       <c r="D18" t="n">
         <v>12.15</v>
       </c>
       <c r="E18" t="n">
-        <v>12.1</v>
+        <v>12.15</v>
       </c>
       <c r="F18" t="n">
-        <v>7168.5191</v>
+        <v>3354.5545</v>
       </c>
       <c r="G18" t="n">
-        <v>12.44116666666666</v>
+        <v>12.44283333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.1</v>
+        <v>12.15</v>
       </c>
       <c r="C19" t="n">
         <v>12.1</v>
       </c>
       <c r="D19" t="n">
-        <v>12.1</v>
+        <v>12.15</v>
       </c>
       <c r="E19" t="n">
         <v>12.1</v>
       </c>
       <c r="F19" t="n">
-        <v>7573.0754</v>
+        <v>7168.5191</v>
       </c>
       <c r="G19" t="n">
-        <v>12.4375</v>
+        <v>12.44116666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>12.1</v>
       </c>
       <c r="C20" t="n">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
       <c r="D20" t="n">
         <v>12.1</v>
       </c>
       <c r="E20" t="n">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
       <c r="F20" t="n">
-        <v>9304.0049</v>
+        <v>7573.0754</v>
       </c>
       <c r="G20" t="n">
-        <v>12.43449999999999</v>
+        <v>12.4375</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>12.1</v>
       </c>
       <c r="C21" t="n">
-        <v>12.1</v>
+        <v>12.02</v>
       </c>
       <c r="D21" t="n">
         <v>12.1</v>
       </c>
       <c r="E21" t="n">
-        <v>12.1</v>
+        <v>12.02</v>
       </c>
       <c r="F21" t="n">
-        <v>418.4917</v>
+        <v>9304.0049</v>
       </c>
       <c r="G21" t="n">
-        <v>12.42633333333333</v>
+        <v>12.43449999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
       <c r="D22" t="n">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
       <c r="F22" t="n">
-        <v>29708.7467</v>
+        <v>418.4917</v>
       </c>
       <c r="G22" t="n">
-        <v>12.42133333333333</v>
+        <v>12.42633333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>12.02</v>
       </c>
       <c r="F23" t="n">
-        <v>84558.8633</v>
+        <v>29708.7467</v>
       </c>
       <c r="G23" t="n">
-        <v>12.41999999999999</v>
+        <v>12.42133333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="D24" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="F24" t="n">
-        <v>4215.7096</v>
+        <v>84558.8633</v>
       </c>
       <c r="G24" t="n">
-        <v>12.41833333333333</v>
+        <v>12.41999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>12.01</v>
       </c>
       <c r="C25" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
         <v>12.01</v>
       </c>
       <c r="E25" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>30653.0036</v>
+        <v>4215.7096</v>
       </c>
       <c r="G25" t="n">
-        <v>12.40866666666666</v>
+        <v>12.41833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.96</v>
+        <v>12.01</v>
       </c>
       <c r="C26" t="n">
-        <v>11.88</v>
+        <v>12.01</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="E26" t="n">
-        <v>11.88</v>
+        <v>12.01</v>
       </c>
       <c r="F26" t="n">
-        <v>58990.5889</v>
+        <v>30653.0036</v>
       </c>
       <c r="G26" t="n">
-        <v>12.39716666666666</v>
+        <v>12.40866666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.23</v>
+        <v>11.96</v>
       </c>
       <c r="C27" t="n">
-        <v>12.23</v>
+        <v>11.88</v>
       </c>
       <c r="D27" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>12.23</v>
+        <v>11.88</v>
       </c>
       <c r="F27" t="n">
-        <v>142</v>
+        <v>58990.5889</v>
       </c>
       <c r="G27" t="n">
-        <v>12.39149999999999</v>
+        <v>12.39716666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.88</v>
+        <v>12.23</v>
       </c>
       <c r="C28" t="n">
-        <v>11.88</v>
+        <v>12.23</v>
       </c>
       <c r="D28" t="n">
-        <v>11.88</v>
+        <v>12.23</v>
       </c>
       <c r="E28" t="n">
-        <v>11.88</v>
+        <v>12.23</v>
       </c>
       <c r="F28" t="n">
-        <v>689.9467</v>
+        <v>142</v>
       </c>
       <c r="G28" t="n">
-        <v>12.38433333333333</v>
+        <v>12.39149999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.05</v>
+        <v>11.88</v>
       </c>
       <c r="C29" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="D29" t="n">
-        <v>12.05</v>
+        <v>11.88</v>
       </c>
       <c r="E29" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="F29" t="n">
-        <v>1131.9467</v>
+        <v>689.9467</v>
       </c>
       <c r="G29" t="n">
-        <v>12.37349999999999</v>
+        <v>12.38433333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="C30" t="n">
         <v>11.9</v>
       </c>
       <c r="D30" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="E30" t="n">
         <v>11.9</v>
       </c>
       <c r="F30" t="n">
-        <v>4835.4455</v>
+        <v>1131.9467</v>
       </c>
       <c r="G30" t="n">
-        <v>12.36916666666666</v>
+        <v>12.37349999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.05</v>
+        <v>11.9</v>
       </c>
       <c r="C31" t="n">
-        <v>12.05</v>
+        <v>11.9</v>
       </c>
       <c r="D31" t="n">
-        <v>12.05</v>
+        <v>11.9</v>
       </c>
       <c r="E31" t="n">
-        <v>12.05</v>
+        <v>11.9</v>
       </c>
       <c r="F31" t="n">
-        <v>2864.748</v>
+        <v>4835.4455</v>
       </c>
       <c r="G31" t="n">
-        <v>12.36666666666666</v>
+        <v>12.36916666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="C32" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="D32" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="E32" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="F32" t="n">
-        <v>7177.2352</v>
+        <v>2864.748</v>
       </c>
       <c r="G32" t="n">
-        <v>12.35999999999999</v>
+        <v>12.36666666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
         <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>11369.227</v>
+        <v>7177.2352</v>
       </c>
       <c r="G33" t="n">
-        <v>12.34966666666666</v>
+        <v>12.35999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="C34" t="n">
-        <v>11.8</v>
+        <v>11.88</v>
       </c>
       <c r="D34" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E34" t="n">
-        <v>11.8</v>
+        <v>11.88</v>
       </c>
       <c r="F34" t="n">
-        <v>28730.2256</v>
+        <v>11369.227</v>
       </c>
       <c r="G34" t="n">
-        <v>12.34383333333332</v>
+        <v>12.34966666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>11.8</v>
       </c>
       <c r="C35" t="n">
-        <v>11.76</v>
+        <v>11.8</v>
       </c>
       <c r="D35" t="n">
         <v>11.8</v>
       </c>
       <c r="E35" t="n">
-        <v>11.76</v>
+        <v>11.8</v>
       </c>
       <c r="F35" t="n">
-        <v>4879.3499</v>
+        <v>28730.2256</v>
       </c>
       <c r="G35" t="n">
-        <v>12.33483333333333</v>
+        <v>12.34383333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>11.8</v>
       </c>
       <c r="C36" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="D36" t="n">
         <v>11.8</v>
       </c>
       <c r="E36" t="n">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="F36" t="n">
-        <v>2535.0042</v>
+        <v>4879.3499</v>
       </c>
       <c r="G36" t="n">
-        <v>12.32816666666666</v>
+        <v>12.33483333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
       </c>
       <c r="C37" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="D37" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
       </c>
       <c r="E37" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="F37" t="n">
-        <v>3417.1272</v>
+        <v>2535.0042</v>
       </c>
       <c r="G37" t="n">
-        <v>12.31599999999999</v>
+        <v>12.32816666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.76</v>
+        <v>11.88</v>
       </c>
       <c r="C38" t="n">
-        <v>11.76</v>
+        <v>11.77</v>
       </c>
       <c r="D38" t="n">
-        <v>11.76</v>
+        <v>11.88</v>
       </c>
       <c r="E38" t="n">
-        <v>11.76</v>
+        <v>11.77</v>
       </c>
       <c r="F38" t="n">
-        <v>65705.8452</v>
+        <v>3417.1272</v>
       </c>
       <c r="G38" t="n">
-        <v>12.30383333333332</v>
+        <v>12.31599999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.88</v>
+        <v>11.76</v>
       </c>
       <c r="C39" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="D39" t="n">
-        <v>11.89</v>
+        <v>11.76</v>
       </c>
       <c r="E39" t="n">
-        <v>11.88</v>
+        <v>11.76</v>
       </c>
       <c r="F39" t="n">
-        <v>1200</v>
+        <v>65705.8452</v>
       </c>
       <c r="G39" t="n">
-        <v>12.29266666666666</v>
+        <v>12.30383333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.89</v>
+        <v>11.88</v>
       </c>
       <c r="C40" t="n">
         <v>11.89</v>
@@ -1772,13 +1772,13 @@
         <v>11.89</v>
       </c>
       <c r="E40" t="n">
-        <v>11.89</v>
+        <v>11.88</v>
       </c>
       <c r="F40" t="n">
-        <v>27141.7223</v>
+        <v>1200</v>
       </c>
       <c r="G40" t="n">
-        <v>12.28833333333332</v>
+        <v>12.29266666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,35 +1798,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="C41" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="D41" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="E41" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="F41" t="n">
-        <v>4665.9822</v>
+        <v>27141.7223</v>
       </c>
       <c r="G41" t="n">
-        <v>12.28166666666666</v>
+        <v>12.28833333333332</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.89</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1837,40 +1833,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.96</v>
+        <v>11.9</v>
       </c>
       <c r="C42" t="n">
-        <v>11.91</v>
+        <v>11.9</v>
       </c>
       <c r="D42" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="E42" t="n">
-        <v>11.91</v>
+        <v>11.9</v>
       </c>
       <c r="F42" t="n">
-        <v>4495.8332</v>
+        <v>4665.9822</v>
       </c>
       <c r="G42" t="n">
-        <v>12.27766666666666</v>
+        <v>12.28166666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,40 +1868,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.77</v>
+        <v>11.96</v>
       </c>
       <c r="C43" t="n">
-        <v>11.75</v>
+        <v>11.91</v>
       </c>
       <c r="D43" t="n">
-        <v>11.77</v>
+        <v>11.98</v>
       </c>
       <c r="E43" t="n">
-        <v>11.75</v>
+        <v>11.91</v>
       </c>
       <c r="F43" t="n">
-        <v>95234.6735</v>
+        <v>4495.8332</v>
       </c>
       <c r="G43" t="n">
-        <v>12.27099999999999</v>
+        <v>12.27766666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1923,40 +1903,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.75</v>
+        <v>11.77</v>
       </c>
       <c r="C44" t="n">
         <v>11.75</v>
       </c>
       <c r="D44" t="n">
-        <v>11.75</v>
+        <v>11.77</v>
       </c>
       <c r="E44" t="n">
         <v>11.75</v>
       </c>
       <c r="F44" t="n">
-        <v>34095.2413</v>
+        <v>95234.6735</v>
       </c>
       <c r="G44" t="n">
-        <v>12.26433333333332</v>
+        <v>12.27099999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="K44" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1969,19 +1941,19 @@
         <v>11.75</v>
       </c>
       <c r="C45" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="D45" t="n">
         <v>11.75</v>
       </c>
       <c r="E45" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="F45" t="n">
-        <v>179916.6779</v>
+        <v>34095.2413</v>
       </c>
       <c r="G45" t="n">
-        <v>12.25033333333332</v>
+        <v>12.26433333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1990,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2007,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="C46" t="n">
         <v>11.6</v>
       </c>
       <c r="D46" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="E46" t="n">
         <v>11.6</v>
       </c>
       <c r="F46" t="n">
-        <v>2370.8131</v>
+        <v>179916.6779</v>
       </c>
       <c r="G46" t="n">
-        <v>12.24066666666666</v>
+        <v>12.25033333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2031,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2048,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C47" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D47" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E47" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F47" t="n">
-        <v>45</v>
+        <v>2370.8131</v>
       </c>
       <c r="G47" t="n">
-        <v>12.23066666666666</v>
+        <v>12.24066666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2072,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2101,10 +2055,10 @@
         <v>11.7</v>
       </c>
       <c r="F48" t="n">
-        <v>13317.799</v>
+        <v>45</v>
       </c>
       <c r="G48" t="n">
-        <v>12.22066666666666</v>
+        <v>12.23066666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2113,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C49" t="n">
-        <v>11.85</v>
+        <v>11.7</v>
       </c>
       <c r="D49" t="n">
-        <v>11.85</v>
+        <v>11.7</v>
       </c>
       <c r="E49" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F49" t="n">
-        <v>39829.6453</v>
+        <v>13317.799</v>
       </c>
       <c r="G49" t="n">
-        <v>12.21316666666666</v>
+        <v>12.22066666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.85</v>
+        <v>11.8</v>
       </c>
       <c r="C50" t="n">
         <v>11.85</v>
@@ -2180,13 +2122,13 @@
         <v>11.85</v>
       </c>
       <c r="E50" t="n">
-        <v>11.85</v>
+        <v>11.8</v>
       </c>
       <c r="F50" t="n">
-        <v>11484.9451</v>
+        <v>39829.6453</v>
       </c>
       <c r="G50" t="n">
-        <v>12.20566666666666</v>
+        <v>12.21316666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2195,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2212,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.98</v>
+        <v>11.85</v>
       </c>
       <c r="C51" t="n">
-        <v>11.98</v>
+        <v>11.85</v>
       </c>
       <c r="D51" t="n">
-        <v>11.98</v>
+        <v>11.85</v>
       </c>
       <c r="E51" t="n">
-        <v>11.98</v>
+        <v>11.85</v>
       </c>
       <c r="F51" t="n">
-        <v>1225.6503</v>
+        <v>11484.9451</v>
       </c>
       <c r="G51" t="n">
-        <v>12.20233333333333</v>
+        <v>12.20566666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2236,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2265,10 +2195,10 @@
         <v>11.98</v>
       </c>
       <c r="F52" t="n">
-        <v>7856.7558</v>
+        <v>1225.6503</v>
       </c>
       <c r="G52" t="n">
-        <v>12.197</v>
+        <v>12.20233333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2277,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2294,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.2</v>
+        <v>11.98</v>
       </c>
       <c r="C53" t="n">
-        <v>12.2</v>
+        <v>11.98</v>
       </c>
       <c r="D53" t="n">
-        <v>12.2</v>
+        <v>11.98</v>
       </c>
       <c r="E53" t="n">
-        <v>12.2</v>
+        <v>11.98</v>
       </c>
       <c r="F53" t="n">
-        <v>45</v>
+        <v>7856.7558</v>
       </c>
       <c r="G53" t="n">
-        <v>12.1925</v>
+        <v>12.197</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2318,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2347,10 +2265,10 @@
         <v>12.2</v>
       </c>
       <c r="F54" t="n">
-        <v>2819.748</v>
+        <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>12.188</v>
+        <v>12.1925</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2359,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2376,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="C55" t="n">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="D55" t="n">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="E55" t="n">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>2819.748</v>
       </c>
       <c r="G55" t="n">
-        <v>12.18383333333333</v>
+        <v>12.188</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2400,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2417,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.21</v>
+        <v>12.22</v>
       </c>
       <c r="C56" t="n">
-        <v>12.21</v>
+        <v>12.22</v>
       </c>
       <c r="D56" t="n">
-        <v>12.21</v>
+        <v>12.22</v>
       </c>
       <c r="E56" t="n">
-        <v>12.21</v>
+        <v>12.22</v>
       </c>
       <c r="F56" t="n">
-        <v>11267.823</v>
+        <v>50</v>
       </c>
       <c r="G56" t="n">
-        <v>12.1795</v>
+        <v>12.18383333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2441,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2461,19 +2361,19 @@
         <v>12.21</v>
       </c>
       <c r="C57" t="n">
-        <v>12.22</v>
+        <v>12.21</v>
       </c>
       <c r="D57" t="n">
-        <v>12.22</v>
+        <v>12.21</v>
       </c>
       <c r="E57" t="n">
         <v>12.21</v>
       </c>
       <c r="F57" t="n">
-        <v>31300.1029</v>
+        <v>11267.823</v>
       </c>
       <c r="G57" t="n">
-        <v>12.175</v>
+        <v>12.1795</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2482,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2499,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.23</v>
+        <v>12.21</v>
       </c>
       <c r="C58" t="n">
-        <v>12.32</v>
+        <v>12.22</v>
       </c>
       <c r="D58" t="n">
-        <v>12.32</v>
+        <v>12.22</v>
       </c>
       <c r="E58" t="n">
-        <v>12.23</v>
+        <v>12.21</v>
       </c>
       <c r="F58" t="n">
-        <v>946.6523999999999</v>
+        <v>31300.1029</v>
       </c>
       <c r="G58" t="n">
-        <v>12.17216666666667</v>
+        <v>12.175</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2523,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2540,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.32</v>
+        <v>12.23</v>
       </c>
       <c r="C59" t="n">
         <v>12.32</v>
       </c>
       <c r="D59" t="n">
-        <v>12.58</v>
+        <v>12.32</v>
       </c>
       <c r="E59" t="n">
-        <v>12.32</v>
+        <v>12.23</v>
       </c>
       <c r="F59" t="n">
-        <v>872.8867</v>
+        <v>946.6523999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>12.16933333333333</v>
+        <v>12.17216666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2564,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2581,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.2</v>
+        <v>12.32</v>
       </c>
       <c r="C60" t="n">
-        <v>12.2</v>
+        <v>12.32</v>
       </c>
       <c r="D60" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="E60" t="n">
-        <v>12.2</v>
+        <v>12.32</v>
       </c>
       <c r="F60" t="n">
-        <v>80988.4143</v>
+        <v>872.8867</v>
       </c>
       <c r="G60" t="n">
-        <v>12.16233333333333</v>
+        <v>12.16933333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2605,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2622,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C61" t="n">
-        <v>12.32</v>
+        <v>12.2</v>
       </c>
       <c r="D61" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E61" t="n">
-        <v>12.31</v>
+        <v>12.2</v>
       </c>
       <c r="F61" t="n">
-        <v>23206.3792</v>
+        <v>80988.4143</v>
       </c>
       <c r="G61" t="n">
-        <v>12.15433333333334</v>
+        <v>12.16233333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2646,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2663,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.31</v>
+        <v>12.4</v>
       </c>
       <c r="C62" t="n">
-        <v>12.31</v>
+        <v>12.32</v>
       </c>
       <c r="D62" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="E62" t="n">
         <v>12.31</v>
       </c>
       <c r="F62" t="n">
-        <v>2198.6101</v>
+        <v>23206.3792</v>
       </c>
       <c r="G62" t="n">
-        <v>12.14616666666667</v>
+        <v>12.15433333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2687,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2704,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.57</v>
+        <v>12.31</v>
       </c>
       <c r="C63" t="n">
-        <v>12.57</v>
+        <v>12.31</v>
       </c>
       <c r="D63" t="n">
-        <v>12.57</v>
+        <v>12.31</v>
       </c>
       <c r="E63" t="n">
-        <v>12.57</v>
+        <v>12.31</v>
       </c>
       <c r="F63" t="n">
-        <v>165740.6195</v>
+        <v>2198.6101</v>
       </c>
       <c r="G63" t="n">
-        <v>12.14083333333334</v>
+        <v>12.14616666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2728,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2757,10 +2615,10 @@
         <v>12.57</v>
       </c>
       <c r="F64" t="n">
-        <v>87416.5114</v>
+        <v>165740.6195</v>
       </c>
       <c r="G64" t="n">
-        <v>12.13550000000001</v>
+        <v>12.14083333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2769,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2786,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="C65" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="D65" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="E65" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="F65" t="n">
-        <v>55.5053</v>
+        <v>87416.5114</v>
       </c>
       <c r="G65" t="n">
-        <v>12.13</v>
+        <v>12.13550000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2810,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2839,10 +2685,10 @@
         <v>12.56</v>
       </c>
       <c r="F66" t="n">
-        <v>63575.8878</v>
+        <v>55.5053</v>
       </c>
       <c r="G66" t="n">
-        <v>12.12433333333334</v>
+        <v>12.13</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2851,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2868,38 +2708,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.57</v>
+        <v>12.56</v>
       </c>
       <c r="C67" t="n">
-        <v>12.57</v>
+        <v>12.56</v>
       </c>
       <c r="D67" t="n">
-        <v>12.57</v>
+        <v>12.56</v>
       </c>
       <c r="E67" t="n">
-        <v>12.57</v>
+        <v>12.56</v>
       </c>
       <c r="F67" t="n">
-        <v>66980.41379999999</v>
+        <v>63575.8878</v>
       </c>
       <c r="G67" t="n">
-        <v>12.11883333333334</v>
+        <v>12.12433333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2909,38 +2743,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="C68" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="D68" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="E68" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="F68" t="n">
-        <v>104266.8191</v>
+        <v>66980.41379999999</v>
       </c>
       <c r="G68" t="n">
-        <v>12.11933333333334</v>
+        <v>12.11883333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2950,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="C69" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="D69" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="E69" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="F69" t="n">
-        <v>228.5304</v>
+        <v>104266.8191</v>
       </c>
       <c r="G69" t="n">
-        <v>12.11400000000001</v>
+        <v>12.11933333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2974,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2994,19 +2816,19 @@
         <v>12.58</v>
       </c>
       <c r="C70" t="n">
-        <v>12.6</v>
+        <v>12.58</v>
       </c>
       <c r="D70" t="n">
-        <v>12.6</v>
+        <v>12.58</v>
       </c>
       <c r="E70" t="n">
         <v>12.58</v>
       </c>
       <c r="F70" t="n">
-        <v>80410.16409999999</v>
+        <v>228.5304</v>
       </c>
       <c r="G70" t="n">
-        <v>12.10916666666667</v>
+        <v>12.11400000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3015,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3032,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.33</v>
+        <v>12.58</v>
       </c>
       <c r="C71" t="n">
-        <v>12.33</v>
+        <v>12.6</v>
       </c>
       <c r="D71" t="n">
-        <v>12.33</v>
+        <v>12.6</v>
       </c>
       <c r="E71" t="n">
-        <v>12.33</v>
+        <v>12.58</v>
       </c>
       <c r="F71" t="n">
-        <v>9259.0931</v>
+        <v>80410.16409999999</v>
       </c>
       <c r="G71" t="n">
-        <v>12.10300000000001</v>
+        <v>12.10916666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3056,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3073,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.32</v>
+        <v>12.33</v>
       </c>
       <c r="C72" t="n">
-        <v>12.3</v>
+        <v>12.33</v>
       </c>
       <c r="D72" t="n">
-        <v>12.32</v>
+        <v>12.33</v>
       </c>
       <c r="E72" t="n">
-        <v>12.3</v>
+        <v>12.33</v>
       </c>
       <c r="F72" t="n">
-        <v>406142.7529</v>
+        <v>9259.0931</v>
       </c>
       <c r="G72" t="n">
-        <v>12.09466666666667</v>
+        <v>12.10300000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3097,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3114,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.6</v>
+        <v>12.32</v>
       </c>
       <c r="C73" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D73" t="n">
-        <v>12.6</v>
+        <v>12.32</v>
       </c>
       <c r="E73" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F73" t="n">
-        <v>571015.7475000001</v>
+        <v>406142.7529</v>
       </c>
       <c r="G73" t="n">
-        <v>12.09566666666668</v>
+        <v>12.09466666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3138,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3167,10 +2965,10 @@
         <v>12.6</v>
       </c>
       <c r="F74" t="n">
-        <v>902.1659</v>
+        <v>571015.7475000001</v>
       </c>
       <c r="G74" t="n">
-        <v>12.09683333333334</v>
+        <v>12.09566666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3179,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3196,40 +2988,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="C75" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="D75" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="E75" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>902.1659</v>
       </c>
       <c r="G75" t="n">
-        <v>12.10100000000001</v>
+        <v>12.09683333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>1.055555088309504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3237,28 +3023,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.4</v>
+        <v>12.61</v>
       </c>
       <c r="C76" t="n">
-        <v>12.4</v>
+        <v>12.61</v>
       </c>
       <c r="D76" t="n">
-        <v>12.4</v>
+        <v>12.61</v>
       </c>
       <c r="E76" t="n">
-        <v>12.4</v>
+        <v>12.61</v>
       </c>
       <c r="F76" t="n">
-        <v>17327.3592</v>
+        <v>200</v>
       </c>
       <c r="G76" t="n">
-        <v>12.10516666666667</v>
+        <v>12.10100000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3272,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C77" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D77" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E77" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F77" t="n">
-        <v>130613.0088</v>
+        <v>17327.3592</v>
       </c>
       <c r="G77" t="n">
-        <v>12.11100000000001</v>
+        <v>12.10516666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3319,10 +3105,10 @@
         <v>12.5</v>
       </c>
       <c r="F78" t="n">
-        <v>77454.4463</v>
+        <v>130613.0088</v>
       </c>
       <c r="G78" t="n">
-        <v>12.11766666666668</v>
+        <v>12.11100000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3354,10 +3140,10 @@
         <v>12.5</v>
       </c>
       <c r="F79" t="n">
-        <v>8864.973900000001</v>
+        <v>77454.4463</v>
       </c>
       <c r="G79" t="n">
-        <v>12.12433333333334</v>
+        <v>12.11766666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3389,10 +3175,10 @@
         <v>12.5</v>
       </c>
       <c r="F80" t="n">
-        <v>5868.2046</v>
+        <v>8864.973900000001</v>
       </c>
       <c r="G80" t="n">
-        <v>12.13233333333334</v>
+        <v>12.12433333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3412,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.41</v>
+        <v>12.5</v>
       </c>
       <c r="C81" t="n">
-        <v>12.41</v>
+        <v>12.5</v>
       </c>
       <c r="D81" t="n">
-        <v>12.41</v>
+        <v>12.5</v>
       </c>
       <c r="E81" t="n">
-        <v>12.41</v>
+        <v>12.5</v>
       </c>
       <c r="F81" t="n">
-        <v>13535.4969</v>
+        <v>5868.2046</v>
       </c>
       <c r="G81" t="n">
-        <v>12.13750000000001</v>
+        <v>12.13233333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3447,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.33</v>
+        <v>12.41</v>
       </c>
       <c r="C82" t="n">
-        <v>12.04</v>
+        <v>12.41</v>
       </c>
       <c r="D82" t="n">
-        <v>12.33</v>
+        <v>12.41</v>
       </c>
       <c r="E82" t="n">
-        <v>12.04</v>
+        <v>12.41</v>
       </c>
       <c r="F82" t="n">
-        <v>93359.4267</v>
+        <v>13535.4969</v>
       </c>
       <c r="G82" t="n">
-        <v>12.13783333333334</v>
+        <v>12.13750000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3482,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.21</v>
+        <v>12.33</v>
       </c>
       <c r="C83" t="n">
-        <v>12.21</v>
+        <v>12.04</v>
       </c>
       <c r="D83" t="n">
-        <v>12.21</v>
+        <v>12.33</v>
       </c>
       <c r="E83" t="n">
-        <v>12.21</v>
+        <v>12.04</v>
       </c>
       <c r="F83" t="n">
-        <v>20777</v>
+        <v>93359.4267</v>
       </c>
       <c r="G83" t="n">
-        <v>12.14100000000001</v>
+        <v>12.13783333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3517,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.47</v>
+        <v>12.21</v>
       </c>
       <c r="C84" t="n">
-        <v>12.47</v>
+        <v>12.21</v>
       </c>
       <c r="D84" t="n">
-        <v>12.47</v>
+        <v>12.21</v>
       </c>
       <c r="E84" t="n">
-        <v>12.47</v>
+        <v>12.21</v>
       </c>
       <c r="F84" t="n">
-        <v>41</v>
+        <v>20777</v>
       </c>
       <c r="G84" t="n">
-        <v>12.14883333333334</v>
+        <v>12.14100000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3552,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.21</v>
+        <v>12.47</v>
       </c>
       <c r="C85" t="n">
-        <v>12.3</v>
+        <v>12.47</v>
       </c>
       <c r="D85" t="n">
-        <v>12.3</v>
+        <v>12.47</v>
       </c>
       <c r="E85" t="n">
-        <v>12.1</v>
+        <v>12.47</v>
       </c>
       <c r="F85" t="n">
-        <v>12450.6321</v>
+        <v>41</v>
       </c>
       <c r="G85" t="n">
-        <v>12.15366666666668</v>
+        <v>12.14883333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3587,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.43</v>
+        <v>12.21</v>
       </c>
       <c r="C86" t="n">
-        <v>12.43</v>
+        <v>12.3</v>
       </c>
       <c r="D86" t="n">
-        <v>12.43</v>
+        <v>12.3</v>
       </c>
       <c r="E86" t="n">
-        <v>12.43</v>
+        <v>12.1</v>
       </c>
       <c r="F86" t="n">
-        <v>41</v>
+        <v>12450.6321</v>
       </c>
       <c r="G86" t="n">
-        <v>12.16283333333334</v>
+        <v>12.15366666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3625,19 +3411,19 @@
         <v>12.43</v>
       </c>
       <c r="C87" t="n">
-        <v>12.46</v>
+        <v>12.43</v>
       </c>
       <c r="D87" t="n">
-        <v>12.46</v>
+        <v>12.43</v>
       </c>
       <c r="E87" t="n">
         <v>12.43</v>
       </c>
       <c r="F87" t="n">
-        <v>88884.5787</v>
+        <v>41</v>
       </c>
       <c r="G87" t="n">
-        <v>12.16666666666667</v>
+        <v>12.16283333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3657,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.5</v>
+        <v>12.43</v>
       </c>
       <c r="C88" t="n">
-        <v>12.5</v>
+        <v>12.46</v>
       </c>
       <c r="D88" t="n">
-        <v>12.5</v>
+        <v>12.46</v>
       </c>
       <c r="E88" t="n">
-        <v>12.5</v>
+        <v>12.43</v>
       </c>
       <c r="F88" t="n">
-        <v>8037.9994</v>
+        <v>88884.5787</v>
       </c>
       <c r="G88" t="n">
-        <v>12.17700000000001</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3692,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="C89" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D89" t="n">
-        <v>12.31</v>
+        <v>12.5</v>
       </c>
       <c r="E89" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F89" t="n">
-        <v>5000</v>
+        <v>8037.9994</v>
       </c>
       <c r="G89" t="n">
-        <v>12.18366666666667</v>
+        <v>12.17700000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3727,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.41</v>
+        <v>12.31</v>
       </c>
       <c r="C90" t="n">
-        <v>12.41</v>
+        <v>12.3</v>
       </c>
       <c r="D90" t="n">
-        <v>12.41</v>
+        <v>12.31</v>
       </c>
       <c r="E90" t="n">
-        <v>12.41</v>
+        <v>12.3</v>
       </c>
       <c r="F90" t="n">
-        <v>4420.2102</v>
+        <v>5000</v>
       </c>
       <c r="G90" t="n">
-        <v>12.19216666666667</v>
+        <v>12.18366666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3762,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.5</v>
+        <v>12.41</v>
       </c>
       <c r="C91" t="n">
-        <v>12.6</v>
+        <v>12.41</v>
       </c>
       <c r="D91" t="n">
-        <v>12.6</v>
+        <v>12.41</v>
       </c>
       <c r="E91" t="n">
-        <v>12.5</v>
+        <v>12.41</v>
       </c>
       <c r="F91" t="n">
-        <v>7962.2727</v>
+        <v>4420.2102</v>
       </c>
       <c r="G91" t="n">
-        <v>12.20133333333334</v>
+        <v>12.19216666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3797,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C92" t="n">
         <v>12.6</v>
       </c>
-      <c r="C92" t="n">
-        <v>12.61</v>
-      </c>
       <c r="D92" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="E92" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F92" t="n">
-        <v>59564.5107</v>
+        <v>7962.2727</v>
       </c>
       <c r="G92" t="n">
-        <v>12.21316666666667</v>
+        <v>12.20133333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3832,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.41</v>
+        <v>12.6</v>
       </c>
       <c r="C93" t="n">
-        <v>12.41</v>
+        <v>12.61</v>
       </c>
       <c r="D93" t="n">
-        <v>12.41</v>
+        <v>12.61</v>
       </c>
       <c r="E93" t="n">
-        <v>12.41</v>
+        <v>12.6</v>
       </c>
       <c r="F93" t="n">
-        <v>17915.2311</v>
+        <v>59564.5107</v>
       </c>
       <c r="G93" t="n">
-        <v>12.22200000000001</v>
+        <v>12.21316666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3867,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.61</v>
+        <v>12.41</v>
       </c>
       <c r="C94" t="n">
-        <v>12.61</v>
+        <v>12.41</v>
       </c>
       <c r="D94" t="n">
-        <v>12.61</v>
+        <v>12.41</v>
       </c>
       <c r="E94" t="n">
-        <v>12.61</v>
+        <v>12.41</v>
       </c>
       <c r="F94" t="n">
-        <v>40</v>
+        <v>17915.2311</v>
       </c>
       <c r="G94" t="n">
-        <v>12.23550000000001</v>
+        <v>12.22200000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3914,10 +3700,10 @@
         <v>12.61</v>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G95" t="n">
-        <v>12.24966666666668</v>
+        <v>12.23550000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3937,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.4</v>
+        <v>12.61</v>
       </c>
       <c r="C96" t="n">
-        <v>12.4</v>
+        <v>12.61</v>
       </c>
       <c r="D96" t="n">
-        <v>12.4</v>
+        <v>12.61</v>
       </c>
       <c r="E96" t="n">
-        <v>12.4</v>
+        <v>12.61</v>
       </c>
       <c r="F96" t="n">
-        <v>42610.7442</v>
+        <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>12.25966666666668</v>
+        <v>12.24966666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3984,10 +3770,10 @@
         <v>12.4</v>
       </c>
       <c r="F97" t="n">
-        <v>49486.2697</v>
+        <v>42610.7442</v>
       </c>
       <c r="G97" t="n">
-        <v>12.27016666666668</v>
+        <v>12.25966666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4007,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.07</v>
+        <v>12.4</v>
       </c>
       <c r="C98" t="n">
-        <v>12.01</v>
+        <v>12.4</v>
       </c>
       <c r="D98" t="n">
-        <v>12.07</v>
+        <v>12.4</v>
       </c>
       <c r="E98" t="n">
-        <v>12.01</v>
+        <v>12.4</v>
       </c>
       <c r="F98" t="n">
-        <v>10300.8043</v>
+        <v>49486.2697</v>
       </c>
       <c r="G98" t="n">
-        <v>12.27433333333334</v>
+        <v>12.27016666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4042,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="D99" t="n">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="F99" t="n">
-        <v>125.0904</v>
+        <v>10300.8043</v>
       </c>
       <c r="G99" t="n">
-        <v>12.27616666666668</v>
+        <v>12.27433333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4089,10 +3875,10 @@
         <v>12</v>
       </c>
       <c r="F100" t="n">
-        <v>4420.2102</v>
+        <v>125.0904</v>
       </c>
       <c r="G100" t="n">
-        <v>12.27800000000001</v>
+        <v>12.27616666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4112,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="E101" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="F101" t="n">
-        <v>81.43819999999999</v>
+        <v>4420.2102</v>
       </c>
       <c r="G101" t="n">
-        <v>12.28350000000001</v>
+        <v>12.27800000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4147,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.1</v>
+        <v>12.23</v>
       </c>
       <c r="C102" t="n">
-        <v>12.1</v>
+        <v>12.23</v>
       </c>
       <c r="D102" t="n">
-        <v>12.1</v>
+        <v>12.23</v>
       </c>
       <c r="E102" t="n">
-        <v>12.1</v>
+        <v>12.23</v>
       </c>
       <c r="F102" t="n">
-        <v>750.5085</v>
+        <v>81.43819999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>12.28666666666668</v>
+        <v>12.28350000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4182,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.25</v>
+        <v>12.1</v>
       </c>
       <c r="C103" t="n">
-        <v>12.25</v>
+        <v>12.1</v>
       </c>
       <c r="D103" t="n">
-        <v>12.25</v>
+        <v>12.1</v>
       </c>
       <c r="E103" t="n">
-        <v>12.25</v>
+        <v>12.1</v>
       </c>
       <c r="F103" t="n">
-        <v>331.9951</v>
+        <v>750.5085</v>
       </c>
       <c r="G103" t="n">
-        <v>12.29500000000001</v>
+        <v>12.28666666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4217,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.26</v>
+        <v>12.25</v>
       </c>
       <c r="C104" t="n">
-        <v>12.26</v>
+        <v>12.25</v>
       </c>
       <c r="D104" t="n">
-        <v>12.26</v>
+        <v>12.25</v>
       </c>
       <c r="E104" t="n">
-        <v>12.26</v>
+        <v>12.25</v>
       </c>
       <c r="F104" t="n">
-        <v>112345</v>
+        <v>331.9951</v>
       </c>
       <c r="G104" t="n">
-        <v>12.30350000000001</v>
+        <v>12.29500000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4252,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.32</v>
+        <v>12.26</v>
       </c>
       <c r="C105" t="n">
-        <v>12.59</v>
+        <v>12.26</v>
       </c>
       <c r="D105" t="n">
-        <v>12.59</v>
+        <v>12.26</v>
       </c>
       <c r="E105" t="n">
-        <v>12.32</v>
+        <v>12.26</v>
       </c>
       <c r="F105" t="n">
-        <v>916.1771</v>
+        <v>112345</v>
       </c>
       <c r="G105" t="n">
-        <v>12.32000000000001</v>
+        <v>12.30350000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4287,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.35</v>
+        <v>12.32</v>
       </c>
       <c r="C106" t="n">
-        <v>12.35</v>
+        <v>12.59</v>
       </c>
       <c r="D106" t="n">
-        <v>12.35</v>
+        <v>12.59</v>
       </c>
       <c r="E106" t="n">
-        <v>12.35</v>
+        <v>12.32</v>
       </c>
       <c r="F106" t="n">
-        <v>8179.572</v>
+        <v>916.1771</v>
       </c>
       <c r="G106" t="n">
-        <v>12.33250000000001</v>
+        <v>12.32000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4322,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.59</v>
+        <v>12.35</v>
       </c>
       <c r="C107" t="n">
-        <v>12.59</v>
+        <v>12.35</v>
       </c>
       <c r="D107" t="n">
-        <v>12.59</v>
+        <v>12.35</v>
       </c>
       <c r="E107" t="n">
-        <v>12.59</v>
+        <v>12.35</v>
       </c>
       <c r="F107" t="n">
-        <v>40</v>
+        <v>8179.572</v>
       </c>
       <c r="G107" t="n">
-        <v>12.34733333333335</v>
+        <v>12.33250000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4357,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.55</v>
+        <v>12.59</v>
       </c>
       <c r="C108" t="n">
-        <v>12.55</v>
+        <v>12.59</v>
       </c>
       <c r="D108" t="n">
-        <v>12.55</v>
+        <v>12.59</v>
       </c>
       <c r="E108" t="n">
-        <v>12.55</v>
+        <v>12.59</v>
       </c>
       <c r="F108" t="n">
-        <v>8059.4247</v>
+        <v>40</v>
       </c>
       <c r="G108" t="n">
-        <v>12.36150000000001</v>
+        <v>12.34733333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4404,10 +4190,10 @@
         <v>12.55</v>
       </c>
       <c r="F109" t="n">
-        <v>18228.4875</v>
+        <v>8059.4247</v>
       </c>
       <c r="G109" t="n">
-        <v>12.37316666666668</v>
+        <v>12.36150000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4427,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.56</v>
+        <v>12.55</v>
       </c>
       <c r="C110" t="n">
         <v>12.55</v>
       </c>
       <c r="D110" t="n">
-        <v>12.56</v>
+        <v>12.55</v>
       </c>
       <c r="E110" t="n">
         <v>12.55</v>
       </c>
       <c r="F110" t="n">
-        <v>212740.5345</v>
+        <v>18228.4875</v>
       </c>
       <c r="G110" t="n">
-        <v>12.38483333333334</v>
+        <v>12.37316666666668</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4462,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="C111" t="n">
-        <v>12.58</v>
+        <v>12.55</v>
       </c>
       <c r="D111" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="E111" t="n">
-        <v>12.58</v>
+        <v>12.55</v>
       </c>
       <c r="F111" t="n">
-        <v>109.743</v>
+        <v>212740.5345</v>
       </c>
       <c r="G111" t="n">
-        <v>12.39483333333334</v>
+        <v>12.38483333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4497,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.55</v>
+        <v>12.58</v>
       </c>
       <c r="C112" t="n">
         <v>12.58</v>
       </c>
       <c r="D112" t="n">
-        <v>12.6</v>
+        <v>12.58</v>
       </c>
       <c r="E112" t="n">
-        <v>12.55</v>
+        <v>12.58</v>
       </c>
       <c r="F112" t="n">
-        <v>70203.053</v>
+        <v>109.743</v>
       </c>
       <c r="G112" t="n">
-        <v>12.40483333333334</v>
+        <v>12.39483333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4532,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.59</v>
+        <v>12.55</v>
       </c>
       <c r="C113" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="D113" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="E113" t="n">
-        <v>12.59</v>
+        <v>12.55</v>
       </c>
       <c r="F113" t="n">
-        <v>394.74</v>
+        <v>70203.053</v>
       </c>
       <c r="G113" t="n">
-        <v>12.41133333333334</v>
+        <v>12.40483333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4567,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.45</v>
+        <v>12.59</v>
       </c>
       <c r="C114" t="n">
-        <v>12.5</v>
+        <v>12.59</v>
       </c>
       <c r="D114" t="n">
-        <v>12.5</v>
+        <v>12.59</v>
       </c>
       <c r="E114" t="n">
-        <v>12.3</v>
+        <v>12.59</v>
       </c>
       <c r="F114" t="n">
-        <v>17670.9725</v>
+        <v>394.74</v>
       </c>
       <c r="G114" t="n">
-        <v>12.41633333333334</v>
+        <v>12.41133333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4602,7 +4388,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.5</v>
+        <v>12.45</v>
       </c>
       <c r="C115" t="n">
         <v>12.5</v>
@@ -4611,13 +4397,13 @@
         <v>12.5</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F115" t="n">
-        <v>31546.118</v>
+        <v>17670.9725</v>
       </c>
       <c r="G115" t="n">
-        <v>12.42100000000001</v>
+        <v>12.41633333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4637,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C116" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="D116" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E116" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F116" t="n">
-        <v>108013.2284</v>
+        <v>31546.118</v>
       </c>
       <c r="G116" t="n">
-        <v>12.42083333333334</v>
+        <v>12.42100000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4672,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C117" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D117" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E117" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F117" t="n">
-        <v>9648.32</v>
+        <v>108013.2284</v>
       </c>
       <c r="G117" t="n">
-        <v>12.42550000000001</v>
+        <v>12.42083333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4719,10 +4505,10 @@
         <v>12.5</v>
       </c>
       <c r="F118" t="n">
-        <v>381.68</v>
+        <v>9648.32</v>
       </c>
       <c r="G118" t="n">
-        <v>12.42850000000001</v>
+        <v>12.42550000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4742,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.22</v>
+        <v>12.5</v>
       </c>
       <c r="C119" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="D119" t="n">
-        <v>12.22</v>
+        <v>12.5</v>
       </c>
       <c r="E119" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="F119" t="n">
-        <v>118860.3775</v>
+        <v>381.68</v>
       </c>
       <c r="G119" t="n">
-        <v>12.42483333333334</v>
+        <v>12.42850000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4777,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.08</v>
+        <v>12.22</v>
       </c>
       <c r="C120" t="n">
-        <v>12.04</v>
+        <v>12.1</v>
       </c>
       <c r="D120" t="n">
-        <v>12.08</v>
+        <v>12.22</v>
       </c>
       <c r="E120" t="n">
-        <v>12.04</v>
+        <v>12.1</v>
       </c>
       <c r="F120" t="n">
-        <v>118860.3776</v>
+        <v>118860.3775</v>
       </c>
       <c r="G120" t="n">
-        <v>12.42216666666667</v>
+        <v>12.42483333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4812,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.29</v>
+        <v>12.08</v>
       </c>
       <c r="C121" t="n">
-        <v>12.29</v>
+        <v>12.04</v>
       </c>
       <c r="D121" t="n">
-        <v>12.29</v>
+        <v>12.08</v>
       </c>
       <c r="E121" t="n">
-        <v>12.29</v>
+        <v>12.04</v>
       </c>
       <c r="F121" t="n">
-        <v>41</v>
+        <v>118860.3776</v>
       </c>
       <c r="G121" t="n">
-        <v>12.42166666666667</v>
+        <v>12.42216666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4847,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="C122" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="D122" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="E122" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="F122" t="n">
-        <v>1277.9893</v>
+        <v>41</v>
       </c>
       <c r="G122" t="n">
-        <v>12.41983333333334</v>
+        <v>12.42166666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4882,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.06</v>
+        <v>12.2</v>
       </c>
       <c r="C123" t="n">
-        <v>12.06</v>
+        <v>12.2</v>
       </c>
       <c r="D123" t="n">
-        <v>12.06</v>
+        <v>12.2</v>
       </c>
       <c r="E123" t="n">
-        <v>12.06</v>
+        <v>12.2</v>
       </c>
       <c r="F123" t="n">
-        <v>11335.3261</v>
+        <v>1277.9893</v>
       </c>
       <c r="G123" t="n">
-        <v>12.41133333333334</v>
+        <v>12.41983333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4917,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.2</v>
+        <v>12.06</v>
       </c>
       <c r="C124" t="n">
-        <v>12.2</v>
+        <v>12.06</v>
       </c>
       <c r="D124" t="n">
-        <v>12.2</v>
+        <v>12.06</v>
       </c>
       <c r="E124" t="n">
-        <v>12.2</v>
+        <v>12.06</v>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>11335.3261</v>
       </c>
       <c r="G124" t="n">
-        <v>12.40516666666667</v>
+        <v>12.41133333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4964,10 +4750,10 @@
         <v>12.2</v>
       </c>
       <c r="F125" t="n">
-        <v>1775.8922</v>
+        <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>12.39916666666667</v>
+        <v>12.40516666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4999,10 +4785,10 @@
         <v>12.2</v>
       </c>
       <c r="F126" t="n">
-        <v>12525.229</v>
+        <v>1775.8922</v>
       </c>
       <c r="G126" t="n">
-        <v>12.39316666666667</v>
+        <v>12.39916666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5022,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.27</v>
+        <v>12.2</v>
       </c>
       <c r="C127" t="n">
-        <v>12.27</v>
+        <v>12.2</v>
       </c>
       <c r="D127" t="n">
-        <v>12.27</v>
+        <v>12.2</v>
       </c>
       <c r="E127" t="n">
-        <v>12.27</v>
+        <v>12.2</v>
       </c>
       <c r="F127" t="n">
-        <v>54.3669</v>
+        <v>12525.229</v>
       </c>
       <c r="G127" t="n">
-        <v>12.38816666666667</v>
+        <v>12.39316666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5069,10 +4855,10 @@
         <v>12.27</v>
       </c>
       <c r="F128" t="n">
-        <v>19339.9841</v>
+        <v>54.3669</v>
       </c>
       <c r="G128" t="n">
-        <v>12.38333333333334</v>
+        <v>12.38816666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5095,19 +4881,19 @@
         <v>12.27</v>
       </c>
       <c r="C129" t="n">
-        <v>12.21</v>
+        <v>12.27</v>
       </c>
       <c r="D129" t="n">
         <v>12.27</v>
       </c>
       <c r="E129" t="n">
-        <v>12.21</v>
+        <v>12.27</v>
       </c>
       <c r="F129" t="n">
-        <v>27833.4531</v>
+        <v>19339.9841</v>
       </c>
       <c r="G129" t="n">
-        <v>12.37716666666667</v>
+        <v>12.38333333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5127,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.2</v>
+        <v>12.27</v>
       </c>
       <c r="C130" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="D130" t="n">
-        <v>12.2</v>
+        <v>12.27</v>
       </c>
       <c r="E130" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="F130" t="n">
-        <v>57781.5277</v>
+        <v>27833.4531</v>
       </c>
       <c r="G130" t="n">
-        <v>12.37050000000001</v>
+        <v>12.37716666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5162,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C131" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D131" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E131" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F131" t="n">
-        <v>219.0937</v>
+        <v>57781.5277</v>
       </c>
       <c r="G131" t="n">
-        <v>12.37</v>
+        <v>12.37050000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5197,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C132" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D132" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E132" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F132" t="n">
-        <v>57110.7505</v>
+        <v>219.0937</v>
       </c>
       <c r="G132" t="n">
-        <v>12.36833333333334</v>
+        <v>12.37</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5244,10 +5030,10 @@
         <v>12.2</v>
       </c>
       <c r="F133" t="n">
-        <v>80561.458</v>
+        <v>57110.7505</v>
       </c>
       <c r="G133" t="n">
-        <v>12.36166666666667</v>
+        <v>12.36833333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5270,19 +5056,19 @@
         <v>12.2</v>
       </c>
       <c r="C134" t="n">
-        <v>12.05</v>
+        <v>12.2</v>
       </c>
       <c r="D134" t="n">
         <v>12.2</v>
       </c>
       <c r="E134" t="n">
-        <v>12.05</v>
+        <v>12.2</v>
       </c>
       <c r="F134" t="n">
-        <v>421730.5538</v>
+        <v>80561.458</v>
       </c>
       <c r="G134" t="n">
-        <v>12.3525</v>
+        <v>12.36166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5302,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.06</v>
+        <v>12.2</v>
       </c>
       <c r="C135" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="D135" t="n">
-        <v>12.06</v>
+        <v>12.2</v>
       </c>
       <c r="E135" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="F135" t="n">
-        <v>343.4454</v>
+        <v>421730.5538</v>
       </c>
       <c r="G135" t="n">
-        <v>12.34333333333334</v>
+        <v>12.3525</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5349,10 +5135,10 @@
         <v>12.06</v>
       </c>
       <c r="F136" t="n">
-        <v>7962.2727</v>
+        <v>343.4454</v>
       </c>
       <c r="G136" t="n">
-        <v>12.33766666666667</v>
+        <v>12.34333333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5372,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.29</v>
+        <v>12.06</v>
       </c>
       <c r="C137" t="n">
-        <v>12.29</v>
+        <v>12.06</v>
       </c>
       <c r="D137" t="n">
-        <v>12.29</v>
+        <v>12.06</v>
       </c>
       <c r="E137" t="n">
-        <v>12.29</v>
+        <v>12.06</v>
       </c>
       <c r="F137" t="n">
-        <v>18659.6713</v>
+        <v>7962.2727</v>
       </c>
       <c r="G137" t="n">
-        <v>12.33416666666667</v>
+        <v>12.33766666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5407,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.06</v>
+        <v>12.29</v>
       </c>
       <c r="C138" t="n">
-        <v>12.06</v>
+        <v>12.29</v>
       </c>
       <c r="D138" t="n">
-        <v>12.06</v>
+        <v>12.29</v>
       </c>
       <c r="E138" t="n">
-        <v>12.06</v>
+        <v>12.29</v>
       </c>
       <c r="F138" t="n">
-        <v>16729.8773</v>
+        <v>18659.6713</v>
       </c>
       <c r="G138" t="n">
-        <v>12.32683333333333</v>
+        <v>12.33416666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5445,19 +5231,19 @@
         <v>12.06</v>
       </c>
       <c r="C139" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="D139" t="n">
         <v>12.06</v>
       </c>
       <c r="E139" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="F139" t="n">
-        <v>92097.01390000001</v>
+        <v>16729.8773</v>
       </c>
       <c r="G139" t="n">
-        <v>12.31933333333333</v>
+        <v>12.32683333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5477,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.19</v>
+        <v>12.06</v>
       </c>
       <c r="C140" t="n">
-        <v>12.19</v>
+        <v>12.05</v>
       </c>
       <c r="D140" t="n">
-        <v>12.19</v>
+        <v>12.06</v>
       </c>
       <c r="E140" t="n">
-        <v>12.19</v>
+        <v>12.05</v>
       </c>
       <c r="F140" t="n">
-        <v>2188.3813</v>
+        <v>92097.01390000001</v>
       </c>
       <c r="G140" t="n">
-        <v>12.31416666666667</v>
+        <v>12.31933333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5512,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.06</v>
+        <v>12.19</v>
       </c>
       <c r="C141" t="n">
-        <v>12.05</v>
+        <v>12.19</v>
       </c>
       <c r="D141" t="n">
-        <v>12.06</v>
+        <v>12.19</v>
       </c>
       <c r="E141" t="n">
-        <v>12.05</v>
+        <v>12.19</v>
       </c>
       <c r="F141" t="n">
-        <v>57685.4983</v>
+        <v>2188.3813</v>
       </c>
       <c r="G141" t="n">
-        <v>12.30816666666667</v>
+        <v>12.31416666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5550,19 +5336,19 @@
         <v>12.06</v>
       </c>
       <c r="C142" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="D142" t="n">
         <v>12.06</v>
       </c>
       <c r="E142" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="F142" t="n">
-        <v>771.5785</v>
+        <v>57685.4983</v>
       </c>
       <c r="G142" t="n">
-        <v>12.3085</v>
+        <v>12.30816666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5582,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="C143" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="D143" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="E143" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="F143" t="n">
-        <v>38081.1151</v>
+        <v>771.5785</v>
       </c>
       <c r="G143" t="n">
-        <v>12.30583333333333</v>
+        <v>12.3085</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5617,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="C144" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="D144" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="E144" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="F144" t="n">
-        <v>305190.4445</v>
+        <v>38081.1151</v>
       </c>
       <c r="G144" t="n">
-        <v>12.298</v>
+        <v>12.30583333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5652,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12</v>
+        <v>12.06</v>
       </c>
       <c r="C145" t="n">
         <v>12</v>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>12.06</v>
       </c>
       <c r="E145" t="n">
         <v>12</v>
       </c>
       <c r="F145" t="n">
-        <v>53941.3881</v>
+        <v>305190.4445</v>
       </c>
       <c r="G145" t="n">
-        <v>12.293</v>
+        <v>12.298</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5687,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="C146" t="n">
-        <v>12.16</v>
+        <v>12</v>
       </c>
       <c r="D146" t="n">
-        <v>12.16</v>
+        <v>12</v>
       </c>
       <c r="E146" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="F146" t="n">
-        <v>198.274</v>
+        <v>53941.3881</v>
       </c>
       <c r="G146" t="n">
-        <v>12.2885</v>
+        <v>12.293</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5722,7 +5508,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.16</v>
+        <v>12.01</v>
       </c>
       <c r="C147" t="n">
         <v>12.16</v>
@@ -5731,13 +5517,13 @@
         <v>12.16</v>
       </c>
       <c r="E147" t="n">
-        <v>12.16</v>
+        <v>12.01</v>
       </c>
       <c r="F147" t="n">
-        <v>48566.3833</v>
+        <v>198.274</v>
       </c>
       <c r="G147" t="n">
-        <v>12.2835</v>
+        <v>12.2885</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5757,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.01</v>
+        <v>12.16</v>
       </c>
       <c r="C148" t="n">
-        <v>12.01</v>
+        <v>12.16</v>
       </c>
       <c r="D148" t="n">
-        <v>12.01</v>
+        <v>12.16</v>
       </c>
       <c r="E148" t="n">
-        <v>12.01</v>
+        <v>12.16</v>
       </c>
       <c r="F148" t="n">
-        <v>1113659.4603</v>
+        <v>48566.3833</v>
       </c>
       <c r="G148" t="n">
-        <v>12.27533333333333</v>
+        <v>12.2835</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5792,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>12.15</v>
+        <v>12.01</v>
       </c>
       <c r="C149" t="n">
-        <v>12.15</v>
+        <v>12.01</v>
       </c>
       <c r="D149" t="n">
-        <v>12.15</v>
+        <v>12.01</v>
       </c>
       <c r="E149" t="n">
-        <v>12.15</v>
+        <v>12.01</v>
       </c>
       <c r="F149" t="n">
-        <v>9573.227699999999</v>
+        <v>1113659.4603</v>
       </c>
       <c r="G149" t="n">
-        <v>12.27283333333333</v>
+        <v>12.27533333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5827,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>12.02</v>
+        <v>12.15</v>
       </c>
       <c r="C150" t="n">
-        <v>12.02</v>
+        <v>12.15</v>
       </c>
       <c r="D150" t="n">
-        <v>12.02</v>
+        <v>12.15</v>
       </c>
       <c r="E150" t="n">
-        <v>12.02</v>
+        <v>12.15</v>
       </c>
       <c r="F150" t="n">
-        <v>5951.7808</v>
+        <v>9573.227699999999</v>
       </c>
       <c r="G150" t="n">
-        <v>12.26633333333333</v>
+        <v>12.27283333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5862,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="C151" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="D151" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="E151" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="F151" t="n">
-        <v>93528.50410000001</v>
+        <v>5951.7808</v>
       </c>
       <c r="G151" t="n">
-        <v>12.25683333333333</v>
+        <v>12.26633333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5909,10 +5695,10 @@
         <v>12.03</v>
       </c>
       <c r="F152" t="n">
-        <v>100</v>
+        <v>93528.50410000001</v>
       </c>
       <c r="G152" t="n">
-        <v>12.24716666666666</v>
+        <v>12.25683333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5932,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>12.16</v>
+        <v>12.03</v>
       </c>
       <c r="C153" t="n">
-        <v>12.16</v>
+        <v>12.03</v>
       </c>
       <c r="D153" t="n">
-        <v>12.16</v>
+        <v>12.03</v>
       </c>
       <c r="E153" t="n">
-        <v>12.16</v>
+        <v>12.03</v>
       </c>
       <c r="F153" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G153" t="n">
-        <v>12.243</v>
+        <v>12.24716666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5967,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>12.03</v>
+        <v>12.16</v>
       </c>
       <c r="C154" t="n">
-        <v>12.03</v>
+        <v>12.16</v>
       </c>
       <c r="D154" t="n">
-        <v>12.03</v>
+        <v>12.16</v>
       </c>
       <c r="E154" t="n">
-        <v>12.03</v>
+        <v>12.16</v>
       </c>
       <c r="F154" t="n">
-        <v>47140.7103</v>
+        <v>50</v>
       </c>
       <c r="G154" t="n">
-        <v>12.23333333333333</v>
+        <v>12.243</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6005,19 +5791,19 @@
         <v>12.03</v>
       </c>
       <c r="C155" t="n">
-        <v>12.16</v>
+        <v>12.03</v>
       </c>
       <c r="D155" t="n">
-        <v>12.16</v>
+        <v>12.03</v>
       </c>
       <c r="E155" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="F155" t="n">
-        <v>242772.5116</v>
+        <v>47140.7103</v>
       </c>
       <c r="G155" t="n">
-        <v>12.22583333333333</v>
+        <v>12.23333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6037,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E156" t="n">
         <v>12.02</v>
       </c>
-      <c r="C156" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D156" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="E156" t="n">
-        <v>12.01</v>
-      </c>
       <c r="F156" t="n">
-        <v>415818.1622</v>
+        <v>242772.5116</v>
       </c>
       <c r="G156" t="n">
-        <v>12.21933333333333</v>
+        <v>12.22583333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6072,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="C157" t="n">
         <v>12.01</v>
       </c>
       <c r="D157" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="E157" t="n">
         <v>12.01</v>
       </c>
       <c r="F157" t="n">
-        <v>5623.1876</v>
+        <v>415818.1622</v>
       </c>
       <c r="G157" t="n">
-        <v>12.21283333333333</v>
+        <v>12.21933333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6107,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.8</v>
+        <v>12.01</v>
       </c>
       <c r="C158" t="n">
-        <v>11.8</v>
+        <v>12.01</v>
       </c>
       <c r="D158" t="n">
-        <v>11.8</v>
+        <v>12.01</v>
       </c>
       <c r="E158" t="n">
-        <v>11.8</v>
+        <v>12.01</v>
       </c>
       <c r="F158" t="n">
-        <v>27585.8599</v>
+        <v>5623.1876</v>
       </c>
       <c r="G158" t="n">
-        <v>12.20933333333333</v>
+        <v>12.21283333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6145,19 +5931,19 @@
         <v>11.8</v>
       </c>
       <c r="C159" t="n">
-        <v>11.91</v>
+        <v>11.8</v>
       </c>
       <c r="D159" t="n">
-        <v>11.91</v>
+        <v>11.8</v>
       </c>
       <c r="E159" t="n">
         <v>11.8</v>
       </c>
       <c r="F159" t="n">
-        <v>121166.6478</v>
+        <v>27585.8599</v>
       </c>
       <c r="G159" t="n">
-        <v>12.20783333333333</v>
+        <v>12.20933333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6177,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C160" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="D160" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="E160" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F160" t="n">
-        <v>20151.133</v>
+        <v>121166.6478</v>
       </c>
       <c r="G160" t="n">
-        <v>12.20616666666666</v>
+        <v>12.20783333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6212,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="C161" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="D161" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="E161" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="F161" t="n">
-        <v>50.4683</v>
+        <v>20151.133</v>
       </c>
       <c r="G161" t="n">
-        <v>12.19916666666666</v>
+        <v>12.20616666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6250,19 +6036,19 @@
         <v>11.81</v>
       </c>
       <c r="C162" t="n">
-        <v>11.9</v>
+        <v>11.81</v>
       </c>
       <c r="D162" t="n">
-        <v>11.9</v>
+        <v>11.81</v>
       </c>
       <c r="E162" t="n">
         <v>11.81</v>
       </c>
       <c r="F162" t="n">
-        <v>63886.3656</v>
+        <v>50.4683</v>
       </c>
       <c r="G162" t="n">
-        <v>12.19583333333333</v>
+        <v>12.19916666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6282,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>11.82</v>
+        <v>11.81</v>
       </c>
       <c r="C163" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="D163" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="E163" t="n">
-        <v>11.82</v>
+        <v>11.81</v>
       </c>
       <c r="F163" t="n">
-        <v>524.6796000000001</v>
+        <v>63886.3656</v>
       </c>
       <c r="G163" t="n">
-        <v>12.18866666666666</v>
+        <v>12.19583333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6317,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>11.98</v>
+        <v>11.82</v>
       </c>
       <c r="C164" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="D164" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="E164" t="n">
-        <v>11.98</v>
+        <v>11.82</v>
       </c>
       <c r="F164" t="n">
-        <v>12469.16153427857</v>
+        <v>524.6796000000001</v>
       </c>
       <c r="G164" t="n">
-        <v>12.18416666666666</v>
+        <v>12.18866666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6352,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>11.82</v>
+        <v>11.98</v>
       </c>
       <c r="C165" t="n">
-        <v>11.81</v>
+        <v>11.99</v>
       </c>
       <c r="D165" t="n">
-        <v>11.82</v>
+        <v>11.99</v>
       </c>
       <c r="E165" t="n">
-        <v>11.81</v>
+        <v>11.98</v>
       </c>
       <c r="F165" t="n">
-        <v>2271.0981</v>
+        <v>12469.16153427857</v>
       </c>
       <c r="G165" t="n">
-        <v>12.17116666666666</v>
+        <v>12.18416666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6399,10 +6185,10 @@
         <v>11.81</v>
       </c>
       <c r="F166" t="n">
-        <v>107033.672</v>
+        <v>2271.0981</v>
       </c>
       <c r="G166" t="n">
-        <v>12.16216666666666</v>
+        <v>12.17116666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6422,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="C167" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="D167" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="E167" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="F167" t="n">
-        <v>7400</v>
+        <v>107033.672</v>
       </c>
       <c r="G167" t="n">
-        <v>12.15216666666666</v>
+        <v>12.16216666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6457,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="C168" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="D168" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="E168" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="F168" t="n">
-        <v>9591.7943</v>
+        <v>7400</v>
       </c>
       <c r="G168" t="n">
-        <v>12.14266666666666</v>
+        <v>12.15216666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6492,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>11.73</v>
+        <v>11.98</v>
       </c>
       <c r="C169" t="n">
-        <v>11.73</v>
+        <v>11.98</v>
       </c>
       <c r="D169" t="n">
-        <v>11.73</v>
+        <v>11.98</v>
       </c>
       <c r="E169" t="n">
-        <v>11.73</v>
+        <v>11.98</v>
       </c>
       <c r="F169" t="n">
-        <v>11374.2744</v>
+        <v>9591.7943</v>
       </c>
       <c r="G169" t="n">
-        <v>12.12899999999999</v>
+        <v>12.14266666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6527,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>11.72</v>
+        <v>11.73</v>
       </c>
       <c r="C170" t="n">
-        <v>11.69</v>
+        <v>11.73</v>
       </c>
       <c r="D170" t="n">
-        <v>11.72</v>
+        <v>11.73</v>
       </c>
       <c r="E170" t="n">
-        <v>11.69</v>
+        <v>11.73</v>
       </c>
       <c r="F170" t="n">
-        <v>118972.4217</v>
+        <v>11374.2744</v>
       </c>
       <c r="G170" t="n">
-        <v>12.11466666666666</v>
+        <v>12.12899999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6562,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="C171" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
       <c r="D171" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="E171" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
       <c r="F171" t="n">
-        <v>47976.2136</v>
+        <v>118972.4217</v>
       </c>
       <c r="G171" t="n">
-        <v>12.09933333333333</v>
+        <v>12.11466666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6597,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="C172" t="n">
-        <v>11.8</v>
+        <v>11.66</v>
       </c>
       <c r="D172" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="E172" t="n">
-        <v>11.8</v>
+        <v>11.66</v>
       </c>
       <c r="F172" t="n">
-        <v>932.5766</v>
+        <v>47976.2136</v>
       </c>
       <c r="G172" t="n">
-        <v>12.08633333333333</v>
+        <v>12.09933333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6644,10 +6430,10 @@
         <v>11.8</v>
       </c>
       <c r="F173" t="n">
-        <v>23722.6867</v>
+        <v>932.5766</v>
       </c>
       <c r="G173" t="n">
-        <v>12.07316666666666</v>
+        <v>12.08633333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6679,10 +6465,10 @@
         <v>11.8</v>
       </c>
       <c r="F174" t="n">
-        <v>2074.4112</v>
+        <v>23722.6867</v>
       </c>
       <c r="G174" t="n">
-        <v>12.06149999999999</v>
+        <v>12.07316666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6702,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="C175" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D175" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="E175" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F175" t="n">
-        <v>64422.5369</v>
+        <v>2074.4112</v>
       </c>
       <c r="G175" t="n">
-        <v>12.04816666666666</v>
+        <v>12.06149999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6737,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="C176" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="D176" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="E176" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F176" t="n">
-        <v>3583.331</v>
+        <v>64422.5369</v>
       </c>
       <c r="G176" t="n">
-        <v>12.03966666666666</v>
+        <v>12.04816666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6784,10 +6570,10 @@
         <v>11.69</v>
       </c>
       <c r="F177" t="n">
-        <v>56297.7731</v>
+        <v>3583.331</v>
       </c>
       <c r="G177" t="n">
-        <v>12.02616666666666</v>
+        <v>12.03966666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6810,19 +6596,19 @@
         <v>11.69</v>
       </c>
       <c r="C178" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="D178" t="n">
         <v>11.69</v>
       </c>
       <c r="E178" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="F178" t="n">
-        <v>42142.6507</v>
+        <v>56297.7731</v>
       </c>
       <c r="G178" t="n">
-        <v>12.01249999999999</v>
+        <v>12.02616666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6842,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C179" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="D179" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="E179" t="n">
-        <v>11.7</v>
+        <v>11.68</v>
       </c>
       <c r="F179" t="n">
-        <v>44496.3932</v>
+        <v>42142.6507</v>
       </c>
       <c r="G179" t="n">
-        <v>12.00583333333333</v>
+        <v>12.01249999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6889,10 +6675,10 @@
         <v>11.7</v>
       </c>
       <c r="F180" t="n">
-        <v>5553.4352</v>
+        <v>44496.3932</v>
       </c>
       <c r="G180" t="n">
-        <v>12.00016666666666</v>
+        <v>12.00583333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6915,19 +6701,19 @@
         <v>11.7</v>
       </c>
       <c r="C181" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="D181" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="E181" t="n">
         <v>11.7</v>
       </c>
       <c r="F181" t="n">
-        <v>6999.9813</v>
+        <v>5553.4352</v>
       </c>
       <c r="G181" t="n">
-        <v>11.99183333333333</v>
+        <v>12.00016666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6947,7 +6733,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="C182" t="n">
         <v>11.79</v>
@@ -6956,13 +6742,13 @@
         <v>11.79</v>
       </c>
       <c r="E182" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="F182" t="n">
-        <v>221.6655</v>
+        <v>6999.9813</v>
       </c>
       <c r="G182" t="n">
-        <v>11.98499999999999</v>
+        <v>11.99183333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6982,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="C183" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="D183" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="E183" t="n">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="F183" t="n">
-        <v>5143.4161</v>
+        <v>221.6655</v>
       </c>
       <c r="G183" t="n">
-        <v>11.97916666666666</v>
+        <v>11.98499999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7017,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="C184" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="D184" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="E184" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="F184" t="n">
-        <v>8674.870000000001</v>
+        <v>5143.4161</v>
       </c>
       <c r="G184" t="n">
-        <v>11.97083333333333</v>
+        <v>11.97916666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7064,10 +6850,10 @@
         <v>11.7</v>
       </c>
       <c r="F185" t="n">
-        <v>388.9814</v>
+        <v>8674.870000000001</v>
       </c>
       <c r="G185" t="n">
-        <v>11.9625</v>
+        <v>11.97083333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7087,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="C186" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="D186" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="E186" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="F186" t="n">
-        <v>11750.2025</v>
+        <v>388.9814</v>
       </c>
       <c r="G186" t="n">
-        <v>11.95566666666666</v>
+        <v>11.9625</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7122,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>11.83</v>
+        <v>11.79</v>
       </c>
       <c r="C187" t="n">
-        <v>11.83</v>
+        <v>11.79</v>
       </c>
       <c r="D187" t="n">
-        <v>11.83</v>
+        <v>11.79</v>
       </c>
       <c r="E187" t="n">
-        <v>11.83</v>
+        <v>11.79</v>
       </c>
       <c r="F187" t="n">
-        <v>9951.7832</v>
+        <v>11750.2025</v>
       </c>
       <c r="G187" t="n">
-        <v>11.94833333333333</v>
+        <v>11.95566666666666</v>
       </c>
       <c r="H187" t="n">
         <v>1</v>
@@ -7146,10 +6932,10 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="K187" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
@@ -7161,22 +6947,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>11.85</v>
+        <v>11.83</v>
       </c>
       <c r="C188" t="n">
-        <v>11.85</v>
+        <v>11.83</v>
       </c>
       <c r="D188" t="n">
-        <v>11.85</v>
+        <v>11.83</v>
       </c>
       <c r="E188" t="n">
-        <v>11.85</v>
+        <v>11.83</v>
       </c>
       <c r="F188" t="n">
-        <v>841.6848</v>
+        <v>9951.7832</v>
       </c>
       <c r="G188" t="n">
-        <v>11.94133333333333</v>
+        <v>11.94833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7186,7 +6972,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7205,29 +6991,31 @@
         <v>11.85</v>
       </c>
       <c r="C189" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="D189" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="E189" t="n">
         <v>11.85</v>
       </c>
       <c r="F189" t="n">
-        <v>18396.95944945516</v>
+        <v>841.6848</v>
       </c>
       <c r="G189" t="n">
-        <v>11.93666666666666</v>
+        <v>11.94133333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>11.83</v>
+      </c>
       <c r="K189" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7243,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>11.87</v>
+        <v>11.85</v>
       </c>
       <c r="C190" t="n">
-        <v>11.83</v>
+        <v>11.93</v>
       </c>
       <c r="D190" t="n">
-        <v>11.87</v>
+        <v>11.93</v>
       </c>
       <c r="E190" t="n">
-        <v>11.83</v>
+        <v>11.85</v>
       </c>
       <c r="F190" t="n">
-        <v>340214.86</v>
+        <v>18396.95944945516</v>
       </c>
       <c r="G190" t="n">
-        <v>11.93049999999999</v>
+        <v>11.93666666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7278,22 +7066,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>11.93</v>
+        <v>11.87</v>
       </c>
       <c r="C191" t="n">
-        <v>11.93</v>
+        <v>11.83</v>
       </c>
       <c r="D191" t="n">
-        <v>11.93</v>
+        <v>11.87</v>
       </c>
       <c r="E191" t="n">
-        <v>11.93</v>
+        <v>11.83</v>
       </c>
       <c r="F191" t="n">
-        <v>340.5651</v>
+        <v>340214.86</v>
       </c>
       <c r="G191" t="n">
-        <v>11.92433333333333</v>
+        <v>11.93049999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7313,22 +7101,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="C192" t="n">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="D192" t="n">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="E192" t="n">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="F192" t="n">
-        <v>95700</v>
+        <v>340.5651</v>
       </c>
       <c r="G192" t="n">
-        <v>11.91966666666666</v>
+        <v>11.92433333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7360,10 +7148,10 @@
         <v>11.92</v>
       </c>
       <c r="F193" t="n">
-        <v>388.3025</v>
+        <v>95700</v>
       </c>
       <c r="G193" t="n">
-        <v>11.91499999999999</v>
+        <v>11.91966666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7395,10 +7183,10 @@
         <v>11.92</v>
       </c>
       <c r="F194" t="n">
-        <v>4163.074</v>
+        <v>388.3025</v>
       </c>
       <c r="G194" t="n">
-        <v>11.91283333333332</v>
+        <v>11.91499999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7430,10 +7218,10 @@
         <v>11.92</v>
       </c>
       <c r="F195" t="n">
-        <v>85924.96610000001</v>
+        <v>4163.074</v>
       </c>
       <c r="G195" t="n">
-        <v>11.91049999999999</v>
+        <v>11.91283333333332</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7465,10 +7253,10 @@
         <v>11.92</v>
       </c>
       <c r="F196" t="n">
-        <v>9058.8262</v>
+        <v>85924.96610000001</v>
       </c>
       <c r="G196" t="n">
-        <v>11.90816666666666</v>
+        <v>11.91049999999999</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7488,22 +7276,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>11.93</v>
+        <v>11.92</v>
       </c>
       <c r="C197" t="n">
-        <v>11.93</v>
+        <v>11.92</v>
       </c>
       <c r="D197" t="n">
-        <v>11.93</v>
+        <v>11.92</v>
       </c>
       <c r="E197" t="n">
-        <v>11.93</v>
+        <v>11.92</v>
       </c>
       <c r="F197" t="n">
-        <v>37793.47805054484</v>
+        <v>9058.8262</v>
       </c>
       <c r="G197" t="n">
-        <v>11.90216666666666</v>
+        <v>11.90816666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7526,19 +7314,19 @@
         <v>11.93</v>
       </c>
       <c r="C198" t="n">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="D198" t="n">
         <v>11.93</v>
       </c>
       <c r="E198" t="n">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="F198" t="n">
-        <v>45593.2097</v>
+        <v>37793.47805054484</v>
       </c>
       <c r="G198" t="n">
-        <v>11.89983333333332</v>
+        <v>11.90216666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7558,22 +7346,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>11.94</v>
+        <v>11.93</v>
       </c>
       <c r="C199" t="n">
-        <v>11.97</v>
+        <v>11.92</v>
       </c>
       <c r="D199" t="n">
-        <v>11.97</v>
+        <v>11.93</v>
       </c>
       <c r="E199" t="n">
-        <v>11.94</v>
+        <v>11.92</v>
       </c>
       <c r="F199" t="n">
-        <v>887.0160078529658</v>
+        <v>45593.2097</v>
       </c>
       <c r="G199" t="n">
-        <v>11.89849999999999</v>
+        <v>11.89983333333332</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7593,7 +7381,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="C200" t="n">
         <v>11.97</v>
@@ -7602,13 +7390,13 @@
         <v>11.97</v>
       </c>
       <c r="E200" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="F200" t="n">
-        <v>10000</v>
+        <v>887.0160078529658</v>
       </c>
       <c r="G200" t="n">
-        <v>11.89483333333333</v>
+        <v>11.89849999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7640,10 +7428,10 @@
         <v>11.97</v>
       </c>
       <c r="F201" t="n">
-        <v>2668.4241</v>
+        <v>10000</v>
       </c>
       <c r="G201" t="n">
-        <v>11.89349999999999</v>
+        <v>11.89483333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7663,22 +7451,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>11.99</v>
+        <v>11.97</v>
       </c>
       <c r="C202" t="n">
-        <v>11.99</v>
+        <v>11.97</v>
       </c>
       <c r="D202" t="n">
-        <v>11.99</v>
+        <v>11.97</v>
       </c>
       <c r="E202" t="n">
-        <v>11.99</v>
+        <v>11.97</v>
       </c>
       <c r="F202" t="n">
-        <v>906</v>
+        <v>2668.4241</v>
       </c>
       <c r="G202" t="n">
-        <v>11.89233333333333</v>
+        <v>11.89349999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7701,19 +7489,19 @@
         <v>11.99</v>
       </c>
       <c r="C203" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D203" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E203" t="n">
         <v>11.99</v>
       </c>
       <c r="F203" t="n">
-        <v>1121.0170885</v>
+        <v>906</v>
       </c>
       <c r="G203" t="n">
-        <v>11.8915</v>
+        <v>11.89233333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7733,7 +7521,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C204" t="n">
         <v>12</v>
@@ -7742,10 +7530,10 @@
         <v>12</v>
       </c>
       <c r="E204" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F204" t="n">
-        <v>1827.9417115</v>
+        <v>1121.0170885</v>
       </c>
       <c r="G204" t="n">
         <v>11.8915</v>
@@ -7768,22 +7556,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="C205" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="D205" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="E205" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="F205" t="n">
-        <v>1827.9417</v>
+        <v>1827.9417115</v>
       </c>
       <c r="G205" t="n">
-        <v>11.89116666666666</v>
+        <v>11.8915</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7803,22 +7591,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="C206" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="D206" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="E206" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="F206" t="n">
-        <v>700.7709</v>
+        <v>1827.9417</v>
       </c>
       <c r="G206" t="n">
-        <v>11.88833333333333</v>
+        <v>11.89116666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7841,19 +7629,19 @@
         <v>11.99</v>
       </c>
       <c r="C207" t="n">
-        <v>12.14</v>
+        <v>11.99</v>
       </c>
       <c r="D207" t="n">
-        <v>12.14</v>
+        <v>11.99</v>
       </c>
       <c r="E207" t="n">
         <v>11.99</v>
       </c>
       <c r="F207" t="n">
-        <v>145</v>
+        <v>700.7709</v>
       </c>
       <c r="G207" t="n">
-        <v>11.888</v>
+        <v>11.88833333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7873,7 +7661,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>12.14</v>
+        <v>11.99</v>
       </c>
       <c r="C208" t="n">
         <v>12.14</v>
@@ -7882,13 +7670,13 @@
         <v>12.14</v>
       </c>
       <c r="E208" t="n">
-        <v>12.14</v>
+        <v>11.99</v>
       </c>
       <c r="F208" t="n">
-        <v>25623.9239</v>
+        <v>145</v>
       </c>
       <c r="G208" t="n">
-        <v>11.89016666666666</v>
+        <v>11.888</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7908,22 +7696,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="C209" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="D209" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="E209" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="F209" t="n">
-        <v>5037.2178</v>
+        <v>25623.9239</v>
       </c>
       <c r="G209" t="n">
-        <v>11.89033333333333</v>
+        <v>11.89016666666666</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7943,22 +7731,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="C210" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="D210" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="E210" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="F210" t="n">
-        <v>4044.1249</v>
+        <v>5037.2178</v>
       </c>
       <c r="G210" t="n">
-        <v>11.89233333333333</v>
+        <v>11.89033333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7990,10 +7778,10 @@
         <v>12.14</v>
       </c>
       <c r="F211" t="n">
-        <v>8870.7716</v>
+        <v>4044.1249</v>
       </c>
       <c r="G211" t="n">
-        <v>11.89416666666666</v>
+        <v>11.89233333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8013,22 +7801,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="C212" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="D212" t="n">
-        <v>12.16</v>
+        <v>12.14</v>
       </c>
       <c r="E212" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="F212" t="n">
-        <v>52944.7069</v>
+        <v>8870.7716</v>
       </c>
       <c r="G212" t="n">
-        <v>11.89616666666666</v>
+        <v>11.89416666666666</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8048,22 +7836,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="C213" t="n">
-        <v>12.14</v>
+        <v>12.15</v>
       </c>
       <c r="D213" t="n">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="E213" t="n">
-        <v>12.14</v>
+        <v>12.15</v>
       </c>
       <c r="F213" t="n">
-        <v>86091.6988</v>
+        <v>52944.7069</v>
       </c>
       <c r="G213" t="n">
-        <v>11.89583333333333</v>
+        <v>11.89616666666666</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8086,19 +7874,19 @@
         <v>12.14</v>
       </c>
       <c r="C214" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="D214" t="n">
         <v>12.14</v>
       </c>
       <c r="E214" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="F214" t="n">
-        <v>108820.1826</v>
+        <v>86091.6988</v>
       </c>
       <c r="G214" t="n">
-        <v>11.89616666666666</v>
+        <v>11.89583333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8118,22 +7906,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="C215" t="n">
         <v>12.05</v>
       </c>
       <c r="D215" t="n">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="E215" t="n">
         <v>12.05</v>
       </c>
       <c r="F215" t="n">
-        <v>12500</v>
+        <v>108820.1826</v>
       </c>
       <c r="G215" t="n">
-        <v>11.89433333333333</v>
+        <v>11.89616666666666</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8153,22 +7941,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="C216" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="D216" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="E216" t="n">
-        <v>12.06</v>
+        <v>12.05</v>
       </c>
       <c r="F216" t="n">
-        <v>3842.7496</v>
+        <v>12500</v>
       </c>
       <c r="G216" t="n">
-        <v>11.89516666666666</v>
+        <v>11.89433333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8191,19 +7979,19 @@
         <v>12.06</v>
       </c>
       <c r="C217" t="n">
-        <v>12.16</v>
+        <v>12.06</v>
       </c>
       <c r="D217" t="n">
-        <v>12.16</v>
+        <v>12.06</v>
       </c>
       <c r="E217" t="n">
         <v>12.06</v>
       </c>
       <c r="F217" t="n">
-        <v>57420.7673</v>
+        <v>3842.7496</v>
       </c>
       <c r="G217" t="n">
-        <v>11.89766666666666</v>
+        <v>11.89516666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8226,19 +8014,19 @@
         <v>12.06</v>
       </c>
       <c r="C218" t="n">
-        <v>12.06</v>
+        <v>12.16</v>
       </c>
       <c r="D218" t="n">
-        <v>12.06</v>
+        <v>12.16</v>
       </c>
       <c r="E218" t="n">
         <v>12.06</v>
       </c>
       <c r="F218" t="n">
-        <v>3842.7496</v>
+        <v>57420.7673</v>
       </c>
       <c r="G218" t="n">
-        <v>11.90199999999999</v>
+        <v>11.89766666666666</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8261,19 +8049,19 @@
         <v>12.06</v>
       </c>
       <c r="C219" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="D219" t="n">
         <v>12.06</v>
       </c>
       <c r="E219" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="F219" t="n">
-        <v>140903.6767</v>
+        <v>3842.7496</v>
       </c>
       <c r="G219" t="n">
-        <v>11.90366666666666</v>
+        <v>11.90199999999999</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8293,22 +8081,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>12.16</v>
+        <v>12.06</v>
       </c>
       <c r="C220" t="n">
-        <v>12.23</v>
+        <v>12.01</v>
       </c>
       <c r="D220" t="n">
-        <v>12.23</v>
+        <v>12.06</v>
       </c>
       <c r="E220" t="n">
-        <v>12.16</v>
+        <v>12.01</v>
       </c>
       <c r="F220" t="n">
-        <v>52367.41659174162</v>
+        <v>140903.6767</v>
       </c>
       <c r="G220" t="n">
-        <v>11.90916666666666</v>
+        <v>11.90366666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8328,22 +8116,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>12.02</v>
+        <v>12.16</v>
       </c>
       <c r="C221" t="n">
-        <v>12.02</v>
+        <v>12.23</v>
       </c>
       <c r="D221" t="n">
-        <v>12.02</v>
+        <v>12.23</v>
       </c>
       <c r="E221" t="n">
-        <v>12.02</v>
+        <v>12.16</v>
       </c>
       <c r="F221" t="n">
-        <v>24109.9263</v>
+        <v>52367.41659174162</v>
       </c>
       <c r="G221" t="n">
-        <v>11.91266666666666</v>
+        <v>11.90916666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8363,22 +8151,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="C222" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="D222" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="E222" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="F222" t="n">
-        <v>15890</v>
+        <v>24109.9263</v>
       </c>
       <c r="G222" t="n">
-        <v>11.9145</v>
+        <v>11.91266666666666</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8398,22 +8186,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>12.22</v>
+        <v>12.01</v>
       </c>
       <c r="C223" t="n">
-        <v>12.22</v>
+        <v>12.01</v>
       </c>
       <c r="D223" t="n">
-        <v>12.22</v>
+        <v>12.01</v>
       </c>
       <c r="E223" t="n">
-        <v>12.22</v>
+        <v>12.01</v>
       </c>
       <c r="F223" t="n">
-        <v>52.9225</v>
+        <v>15890</v>
       </c>
       <c r="G223" t="n">
-        <v>11.92116666666666</v>
+        <v>11.9145</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8445,10 +8233,10 @@
         <v>12.22</v>
       </c>
       <c r="F224" t="n">
-        <v>21546.5165</v>
+        <v>52.9225</v>
       </c>
       <c r="G224" t="n">
-        <v>11.925</v>
+        <v>11.92116666666666</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8468,22 +8256,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12.02</v>
+        <v>12.22</v>
       </c>
       <c r="C225" t="n">
-        <v>11.95</v>
+        <v>12.22</v>
       </c>
       <c r="D225" t="n">
-        <v>12.02</v>
+        <v>12.22</v>
       </c>
       <c r="E225" t="n">
-        <v>11.95</v>
+        <v>12.22</v>
       </c>
       <c r="F225" t="n">
-        <v>715574</v>
+        <v>21546.5165</v>
       </c>
       <c r="G225" t="n">
-        <v>11.92733333333333</v>
+        <v>11.925</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8503,22 +8291,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="C226" t="n">
-        <v>12.22</v>
+        <v>11.95</v>
       </c>
       <c r="D226" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="E226" t="n">
-        <v>12.22</v>
+        <v>11.95</v>
       </c>
       <c r="F226" t="n">
-        <v>1000</v>
+        <v>715574</v>
       </c>
       <c r="G226" t="n">
-        <v>11.93416666666667</v>
+        <v>11.92733333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8538,22 +8326,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>11.96</v>
+        <v>12.22</v>
       </c>
       <c r="C227" t="n">
-        <v>11.96</v>
+        <v>12.22</v>
       </c>
       <c r="D227" t="n">
-        <v>11.96</v>
+        <v>12.22</v>
       </c>
       <c r="E227" t="n">
-        <v>11.96</v>
+        <v>12.22</v>
       </c>
       <c r="F227" t="n">
-        <v>141318</v>
+        <v>1000</v>
       </c>
       <c r="G227" t="n">
-        <v>11.93366666666667</v>
+        <v>11.93416666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8573,22 +8361,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12.18</v>
+        <v>11.96</v>
       </c>
       <c r="C228" t="n">
-        <v>12.18</v>
+        <v>11.96</v>
       </c>
       <c r="D228" t="n">
-        <v>12.18</v>
+        <v>11.96</v>
       </c>
       <c r="E228" t="n">
-        <v>12.18</v>
+        <v>11.96</v>
       </c>
       <c r="F228" t="n">
-        <v>42</v>
+        <v>141318</v>
       </c>
       <c r="G228" t="n">
-        <v>11.937</v>
+        <v>11.93366666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8608,22 +8396,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>12</v>
+        <v>12.18</v>
       </c>
       <c r="C229" t="n">
-        <v>12</v>
+        <v>12.18</v>
       </c>
       <c r="D229" t="n">
-        <v>12</v>
+        <v>12.18</v>
       </c>
       <c r="E229" t="n">
-        <v>12</v>
+        <v>12.18</v>
       </c>
       <c r="F229" t="n">
-        <v>3537.7385</v>
+        <v>42</v>
       </c>
       <c r="G229" t="n">
-        <v>11.9415</v>
+        <v>11.937</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8643,22 +8431,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C230" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D230" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E230" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F230" t="n">
-        <v>123779.3513</v>
+        <v>3537.7385</v>
       </c>
       <c r="G230" t="n">
-        <v>11.945</v>
+        <v>11.9415</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8678,22 +8466,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>11.71</v>
+        <v>11.95</v>
       </c>
       <c r="C231" t="n">
-        <v>11.71</v>
+        <v>11.9</v>
       </c>
       <c r="D231" t="n">
-        <v>11.71</v>
+        <v>11.95</v>
       </c>
       <c r="E231" t="n">
-        <v>11.71</v>
+        <v>11.9</v>
       </c>
       <c r="F231" t="n">
-        <v>104823.6572</v>
+        <v>123779.3513</v>
       </c>
       <c r="G231" t="n">
-        <v>11.94583333333333</v>
+        <v>11.945</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8713,22 +8501,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>11.89</v>
+        <v>11.71</v>
       </c>
       <c r="C232" t="n">
-        <v>11.89</v>
+        <v>11.71</v>
       </c>
       <c r="D232" t="n">
-        <v>11.89</v>
+        <v>11.71</v>
       </c>
       <c r="E232" t="n">
-        <v>11.89</v>
+        <v>11.71</v>
       </c>
       <c r="F232" t="n">
-        <v>19132</v>
+        <v>104823.6572</v>
       </c>
       <c r="G232" t="n">
-        <v>11.94733333333333</v>
+        <v>11.94583333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8760,10 +8548,10 @@
         <v>11.89</v>
       </c>
       <c r="F233" t="n">
-        <v>4543.5917</v>
+        <v>19132</v>
       </c>
       <c r="G233" t="n">
-        <v>11.94883333333333</v>
+        <v>11.94733333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8783,19 +8571,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="C234" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="D234" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="E234" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="F234" t="n">
-        <v>37983.9902</v>
+        <v>4543.5917</v>
       </c>
       <c r="G234" t="n">
         <v>11.94883333333333</v>
@@ -8830,10 +8618,10 @@
         <v>11.8</v>
       </c>
       <c r="F235" t="n">
-        <v>54495.5336</v>
+        <v>37983.9902</v>
       </c>
       <c r="G235" t="n">
-        <v>11.9505</v>
+        <v>11.94883333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8853,22 +8641,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="C236" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="D236" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="E236" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="F236" t="n">
-        <v>13871.9285</v>
+        <v>54495.5336</v>
       </c>
       <c r="G236" t="n">
-        <v>11.95183333333333</v>
+        <v>11.9505</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8888,22 +8676,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>11.94</v>
+        <v>11.77</v>
       </c>
       <c r="C237" t="n">
-        <v>11.94</v>
+        <v>11.77</v>
       </c>
       <c r="D237" t="n">
-        <v>11.94</v>
+        <v>11.77</v>
       </c>
       <c r="E237" t="n">
-        <v>11.94</v>
+        <v>11.77</v>
       </c>
       <c r="F237" t="n">
-        <v>7747.9149</v>
+        <v>13871.9285</v>
       </c>
       <c r="G237" t="n">
-        <v>11.956</v>
+        <v>11.95183333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8926,28 +8714,32 @@
         <v>11.94</v>
       </c>
       <c r="C238" t="n">
-        <v>11.96</v>
+        <v>11.94</v>
       </c>
       <c r="D238" t="n">
-        <v>11.96</v>
+        <v>11.94</v>
       </c>
       <c r="E238" t="n">
         <v>11.94</v>
       </c>
       <c r="F238" t="n">
-        <v>8004.8983</v>
+        <v>7747.9149</v>
       </c>
       <c r="G238" t="n">
-        <v>11.96066666666666</v>
+        <v>11.956</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="K238" t="n">
+        <v>11.77</v>
+      </c>
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
@@ -8958,7 +8750,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>11.96</v>
+        <v>11.94</v>
       </c>
       <c r="C239" t="n">
         <v>11.96</v>
@@ -8967,23 +8759,31 @@
         <v>11.96</v>
       </c>
       <c r="E239" t="n">
-        <v>11.96</v>
+        <v>11.94</v>
       </c>
       <c r="F239" t="n">
-        <v>9759.9354</v>
+        <v>8004.8983</v>
       </c>
       <c r="G239" t="n">
-        <v>11.965</v>
+        <v>11.96066666666666</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="K239" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9005,20 +8805,28 @@
         <v>11.96</v>
       </c>
       <c r="F240" t="n">
-        <v>32678.8318</v>
+        <v>9759.9354</v>
       </c>
       <c r="G240" t="n">
-        <v>11.96933333333333</v>
+        <v>11.965</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="K240" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9028,31 +8836,35 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="C241" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="D241" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="E241" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="F241" t="n">
-        <v>4196.0493</v>
+        <v>32678.8318</v>
       </c>
       <c r="G241" t="n">
-        <v>11.9745</v>
+        <v>11.96933333333333</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="K241" t="n">
+        <v>11.96</v>
+      </c>
       <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
@@ -9063,32 +8875,40 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>12.18</v>
+        <v>12.1</v>
       </c>
       <c r="C242" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="D242" t="n">
-        <v>12.19</v>
+        <v>12.1</v>
       </c>
       <c r="E242" t="n">
-        <v>11.91</v>
+        <v>12.1</v>
       </c>
       <c r="F242" t="n">
-        <v>21924.685</v>
+        <v>4196.0493</v>
       </c>
       <c r="G242" t="n">
-        <v>11.9765</v>
+        <v>11.9745</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="K242" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9098,22 +8918,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>11.91</v>
+        <v>12.18</v>
       </c>
       <c r="C243" t="n">
         <v>11.91</v>
       </c>
       <c r="D243" t="n">
-        <v>11.91</v>
+        <v>12.19</v>
       </c>
       <c r="E243" t="n">
         <v>11.91</v>
       </c>
       <c r="F243" t="n">
-        <v>23622.706</v>
+        <v>21924.685</v>
       </c>
       <c r="G243" t="n">
-        <v>11.97983333333333</v>
+        <v>11.9765</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9122,8 +8942,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9133,22 +8959,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>12.14</v>
+        <v>11.91</v>
       </c>
       <c r="C244" t="n">
-        <v>12.14</v>
+        <v>11.91</v>
       </c>
       <c r="D244" t="n">
-        <v>12.14</v>
+        <v>11.91</v>
       </c>
       <c r="E244" t="n">
-        <v>12.14</v>
+        <v>11.91</v>
       </c>
       <c r="F244" t="n">
-        <v>627.298</v>
+        <v>23622.706</v>
       </c>
       <c r="G244" t="n">
-        <v>11.98716666666666</v>
+        <v>11.97983333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9157,8 +8983,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9168,22 +9000,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="C245" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="D245" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="E245" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="F245" t="n">
-        <v>49665.0144</v>
+        <v>627.298</v>
       </c>
       <c r="G245" t="n">
-        <v>11.99416666666666</v>
+        <v>11.98716666666666</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9192,8 +9024,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9215,10 +9053,10 @@
         <v>12.12</v>
       </c>
       <c r="F246" t="n">
-        <v>1000</v>
+        <v>49665.0144</v>
       </c>
       <c r="G246" t="n">
-        <v>11.99966666666666</v>
+        <v>11.99416666666666</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9227,8 +9065,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9238,22 +9082,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="C247" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="D247" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="E247" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="F247" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G247" t="n">
-        <v>12.00516666666666</v>
+        <v>11.99966666666666</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9262,8 +9106,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9273,7 +9123,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>12.12</v>
+        <v>12.16</v>
       </c>
       <c r="C248" t="n">
         <v>12.16</v>
@@ -9282,13 +9132,13 @@
         <v>12.16</v>
       </c>
       <c r="E248" t="n">
-        <v>12.12</v>
+        <v>12.16</v>
       </c>
       <c r="F248" t="n">
-        <v>7386.7394</v>
+        <v>100</v>
       </c>
       <c r="G248" t="n">
-        <v>12.01033333333333</v>
+        <v>12.00516666666666</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9297,8 +9147,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9311,19 +9167,19 @@
         <v>12.12</v>
       </c>
       <c r="C249" t="n">
-        <v>12.12</v>
+        <v>12.16</v>
       </c>
       <c r="D249" t="n">
-        <v>12.12</v>
+        <v>12.16</v>
       </c>
       <c r="E249" t="n">
         <v>12.12</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0153</v>
+        <v>7386.7394</v>
       </c>
       <c r="G249" t="n">
-        <v>12.0135</v>
+        <v>12.01033333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9332,8 +9188,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9355,10 +9217,10 @@
         <v>12.12</v>
       </c>
       <c r="F250" t="n">
-        <v>1399.1415</v>
+        <v>0.0153</v>
       </c>
       <c r="G250" t="n">
-        <v>12.01833333333333</v>
+        <v>12.0135</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9367,8 +9229,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9381,19 +9249,19 @@
         <v>12.12</v>
       </c>
       <c r="C251" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="D251" t="n">
         <v>12.12</v>
       </c>
       <c r="E251" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="F251" t="n">
-        <v>5000</v>
+        <v>1399.1415</v>
       </c>
       <c r="G251" t="n">
-        <v>12.0195</v>
+        <v>12.01833333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9402,8 +9270,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9413,22 +9287,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>12.1</v>
+        <v>12.12</v>
       </c>
       <c r="C252" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D252" t="n">
-        <v>12.1</v>
+        <v>12.12</v>
       </c>
       <c r="E252" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F252" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G252" t="n">
-        <v>12.0225</v>
+        <v>12.0195</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9437,8 +9311,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9451,19 +9331,19 @@
         <v>12.1</v>
       </c>
       <c r="C253" t="n">
-        <v>12.14</v>
+        <v>12.1</v>
       </c>
       <c r="D253" t="n">
-        <v>12.14</v>
+        <v>12.1</v>
       </c>
       <c r="E253" t="n">
         <v>12.1</v>
       </c>
       <c r="F253" t="n">
-        <v>591.7430000000001</v>
+        <v>50</v>
       </c>
       <c r="G253" t="n">
-        <v>12.02616666666666</v>
+        <v>12.0225</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9472,8 +9352,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9483,22 +9369,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="C254" t="n">
-        <v>11.97</v>
+        <v>12.14</v>
       </c>
       <c r="D254" t="n">
-        <v>11.98</v>
+        <v>12.14</v>
       </c>
       <c r="E254" t="n">
-        <v>11.97</v>
+        <v>12.1</v>
       </c>
       <c r="F254" t="n">
-        <v>351.2985</v>
+        <v>591.7430000000001</v>
       </c>
       <c r="G254" t="n">
-        <v>12.027</v>
+        <v>12.02616666666666</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9507,8 +9393,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9518,22 +9410,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>12.14</v>
+        <v>11.98</v>
       </c>
       <c r="C255" t="n">
-        <v>12.14</v>
+        <v>11.97</v>
       </c>
       <c r="D255" t="n">
-        <v>12.14</v>
+        <v>11.98</v>
       </c>
       <c r="E255" t="n">
-        <v>12.14</v>
+        <v>11.97</v>
       </c>
       <c r="F255" t="n">
-        <v>42</v>
+        <v>351.2985</v>
       </c>
       <c r="G255" t="n">
-        <v>12.03066666666667</v>
+        <v>12.027</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9542,8 +9434,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9553,22 +9451,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>12.01</v>
+        <v>12.14</v>
       </c>
       <c r="C256" t="n">
-        <v>12</v>
+        <v>12.14</v>
       </c>
       <c r="D256" t="n">
-        <v>12.01</v>
+        <v>12.14</v>
       </c>
       <c r="E256" t="n">
-        <v>12</v>
+        <v>12.14</v>
       </c>
       <c r="F256" t="n">
-        <v>106251.4374</v>
+        <v>42</v>
       </c>
       <c r="G256" t="n">
-        <v>12.032</v>
+        <v>12.03066666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9577,8 +9475,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9588,22 +9492,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="C257" t="n">
         <v>12</v>
       </c>
       <c r="D257" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="E257" t="n">
         <v>12</v>
       </c>
       <c r="F257" t="n">
-        <v>64062.3556</v>
+        <v>106251.4374</v>
       </c>
       <c r="G257" t="n">
-        <v>12.03316666666667</v>
+        <v>12.032</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9612,8 +9516,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9626,19 +9536,19 @@
         <v>12</v>
       </c>
       <c r="C258" t="n">
-        <v>11.94</v>
+        <v>12</v>
       </c>
       <c r="D258" t="n">
         <v>12</v>
       </c>
       <c r="E258" t="n">
-        <v>11.94</v>
+        <v>12</v>
       </c>
       <c r="F258" t="n">
-        <v>46587.1191</v>
+        <v>64062.3556</v>
       </c>
       <c r="G258" t="n">
-        <v>12.0335</v>
+        <v>12.03316666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9647,8 +9557,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9661,19 +9577,19 @@
         <v>12</v>
       </c>
       <c r="C259" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="D259" t="n">
         <v>12</v>
       </c>
       <c r="E259" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="F259" t="n">
-        <v>50</v>
+        <v>46587.1191</v>
       </c>
       <c r="G259" t="n">
-        <v>12.034</v>
+        <v>12.0335</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9682,8 +9598,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9693,22 +9615,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="C260" t="n">
-        <v>11.91</v>
+        <v>12</v>
       </c>
       <c r="D260" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="E260" t="n">
-        <v>11.91</v>
+        <v>12</v>
       </c>
       <c r="F260" t="n">
-        <v>15350.7812</v>
+        <v>50</v>
       </c>
       <c r="G260" t="n">
-        <v>12.033</v>
+        <v>12.034</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9717,8 +9639,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9728,22 +9656,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>11.9</v>
+        <v>11.93</v>
       </c>
       <c r="C261" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="D261" t="n">
-        <v>11.9</v>
+        <v>11.93</v>
       </c>
       <c r="E261" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="F261" t="n">
-        <v>14951.904</v>
+        <v>15350.7812</v>
       </c>
       <c r="G261" t="n">
-        <v>12.03183333333333</v>
+        <v>12.033</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9752,8 +9680,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9763,22 +9697,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="C262" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="D262" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="E262" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="F262" t="n">
-        <v>361.7908</v>
+        <v>14951.904</v>
       </c>
       <c r="G262" t="n">
-        <v>12.03166666666667</v>
+        <v>12.03183333333333</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9787,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9798,22 +9738,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="C263" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="D263" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="E263" t="n">
-        <v>11.9</v>
+        <v>11.98</v>
       </c>
       <c r="F263" t="n">
-        <v>43</v>
+        <v>361.7908</v>
       </c>
       <c r="G263" t="n">
-        <v>12.03</v>
+        <v>12.03166666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9822,8 +9762,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9845,21 +9791,68 @@
         <v>11.9</v>
       </c>
       <c r="F264" t="n">
+        <v>43</v>
+      </c>
+      <c r="G264" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C265" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D265" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E265" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F265" t="n">
         <v>17034.5687</v>
       </c>
-      <c r="G264" t="n">
+      <c r="G265" t="n">
         <v>12.02833333333333</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest TRV.xlsx
+++ b/BackTest/2020-01-11 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>568019.5429796434</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>567887.5429796434</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>568784.9044796434</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>568784.9044796434</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>665760.7453796434</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>665810.8631796434</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>646162.5669796434</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>502839.7504685</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>511613.9381684999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>474804.7770684999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>494167.1337684999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>497667.0049213468</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>529385.1605213467</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>529385.1605213467</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>529425.1605213467</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>529425.1605213467</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>529425.1605213467</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>591059.5180213468</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>591059.5180213468</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>590678.8643213467</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>591013.8715213467</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>585043.2543213468</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>581600.0257213467</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>121240.4855213468</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>121469.0159213468</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>201879.1800213468</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>192620.0869213468</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>357493.0815213469</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>357693.0815213469</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>340365.7223213469</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>457443.2342213469</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>364083.8075213468</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>384860.8075213468</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>384901.8075213468</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>372451.1754213469</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>372492.1754213469</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>461376.7541213469</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>469414.7535213468</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>464414.7535213468</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>468834.9637213468</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>476797.2364213468</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>536361.7471213468</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>518446.5160213468</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>518486.5160213468</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>518486.5160213468</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>475875.7718213468</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>475875.7718213468</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>465574.9675213468</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>465449.8771213468</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -8173,14 +8173,10 @@
         <v>-2192549.838644375</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J236" t="n">
-        <v>11.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
@@ -8213,3796 +8209,3254 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K237" t="inlineStr">
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C238" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D238" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E238" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F238" t="n">
+        <v>44496.3932</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-2190196.096144375</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C239" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D239" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E239" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F239" t="n">
+        <v>5553.4352</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-2190196.096144375</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C240" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D240" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6999.9813</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-2183196.114844375</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C241" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D241" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E241" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F241" t="n">
+        <v>221.6655</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-2183196.114844375</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C242" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D242" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E242" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F242" t="n">
+        <v>5143.4161</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-2188339.530944375</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C243" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D243" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E243" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F243" t="n">
+        <v>8674.870000000001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-2197014.400944375</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C244" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D244" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E244" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F244" t="n">
+        <v>388.9814</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-2197014.400944375</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C245" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D245" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E245" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F245" t="n">
+        <v>11750.2025</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-2185264.198444375</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C246" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D246" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E246" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F246" t="n">
+        <v>9951.7832</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-2175312.415244375</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C247" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D247" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E247" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F247" t="n">
+        <v>841.6848</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-2174470.730444375</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C248" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D248" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E248" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F248" t="n">
+        <v>18396.95944945516</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-2156073.77099492</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="C249" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D249" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="E249" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F249" t="n">
+        <v>340214.86</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-2496288.63099492</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C250" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D250" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E250" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F250" t="n">
+        <v>340.5651</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-2495948.06589492</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C251" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D251" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E251" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F251" t="n">
+        <v>95700</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-2591648.06589492</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C252" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D252" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E252" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F252" t="n">
+        <v>388.3025</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-2591648.06589492</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C253" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D253" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E253" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F253" t="n">
+        <v>4163.074</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-2591648.06589492</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C254" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D254" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E254" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F254" t="n">
+        <v>85924.96610000001</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-2591648.06589492</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C255" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D255" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E255" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F255" t="n">
+        <v>9058.8262</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-2591648.06589492</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C256" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D256" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E256" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F256" t="n">
+        <v>37793.47805054484</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-2553854.587844375</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C257" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D257" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E257" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F257" t="n">
+        <v>45593.2097</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-2599447.797544375</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C258" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="D258" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E258" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F258" t="n">
+        <v>887.0160078529658</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-2598560.781536522</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="C259" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="D259" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E259" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F259" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-2598560.781536522</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="C260" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="D260" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E260" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2668.4241</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-2598560.781536522</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C261" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D261" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E261" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F261" t="n">
+        <v>906</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-2597654.781536522</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C262" t="n">
+        <v>12</v>
+      </c>
+      <c r="D262" t="n">
+        <v>12</v>
+      </c>
+      <c r="E262" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1121.0170885</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-2596533.764448022</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>12</v>
+      </c>
+      <c r="C263" t="n">
+        <v>12</v>
+      </c>
+      <c r="D263" t="n">
+        <v>12</v>
+      </c>
+      <c r="E263" t="n">
+        <v>12</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1827.9417115</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-2596533.764448022</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="C264" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="D264" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="E264" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1827.9417</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-2598361.706148022</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C265" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D265" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E265" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F265" t="n">
+        <v>700.7709</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-2597660.935248022</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C266" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D266" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E266" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F266" t="n">
+        <v>145</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-2597515.935248022</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C267" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D267" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E267" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F267" t="n">
+        <v>25623.9239</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-2597515.935248022</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C268" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D268" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E268" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F268" t="n">
+        <v>5037.2178</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-2592478.717448022</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C269" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D269" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E269" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F269" t="n">
+        <v>4044.1249</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-2596522.842348022</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C270" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D270" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E270" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F270" t="n">
+        <v>8870.7716</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-2596522.842348022</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C271" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D271" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F271" t="n">
+        <v>52944.7069</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-2543578.135448022</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C272" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D272" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F272" t="n">
+        <v>86091.6988</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-2629669.834248022</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C273" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D273" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F273" t="n">
+        <v>108820.1826</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-2738490.016848022</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C274" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D274" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F274" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-2738490.016848022</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C275" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D275" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3842.7496</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-2734647.267248022</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C276" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D276" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E276" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F276" t="n">
+        <v>57420.7673</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-2677226.499948022</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C277" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D277" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E277" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3842.7496</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-2681069.249548022</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C278" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D278" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E278" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F278" t="n">
+        <v>140903.6767</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-2821972.926248022</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C279" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D279" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="E279" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F279" t="n">
+        <v>52367.41659174162</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-2769605.509656281</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C280" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D280" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E280" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F280" t="n">
+        <v>24109.9263</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-2793715.435956281</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C281" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D281" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F281" t="n">
+        <v>15890</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-2809605.435956281</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C282" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D282" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F282" t="n">
+        <v>52.9225</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-2809552.513456281</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C283" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D283" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F283" t="n">
+        <v>21546.5165</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-2809552.513456281</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C284" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D284" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E284" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F284" t="n">
+        <v>715574</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-3525126.513456281</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C285" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D285" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E285" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-3524126.513456281</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C286" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D286" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E286" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F286" t="n">
+        <v>141318</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-3665444.513456281</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="C287" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="D287" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="E287" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="F287" t="n">
+        <v>42</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-3665402.513456281</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>12</v>
+      </c>
+      <c r="C288" t="n">
+        <v>12</v>
+      </c>
+      <c r="D288" t="n">
+        <v>12</v>
+      </c>
+      <c r="E288" t="n">
+        <v>12</v>
+      </c>
+      <c r="F288" t="n">
+        <v>3537.7385</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-3668940.251956281</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C289" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D289" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E289" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F289" t="n">
+        <v>123779.3513</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-3792719.603256281</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C290" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D290" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E290" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F290" t="n">
+        <v>104823.6572</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-3897543.260456281</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C291" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D291" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E291" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F291" t="n">
+        <v>19132</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-3878411.260456281</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C292" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D292" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E292" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F292" t="n">
+        <v>4543.5917</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-3878411.260456281</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C293" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D293" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E293" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F293" t="n">
+        <v>37983.9902</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-3916395.250656281</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C294" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D294" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E294" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F294" t="n">
+        <v>54495.5336</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-3916395.250656281</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C295" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D295" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E295" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F295" t="n">
+        <v>13871.9285</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-3930267.179156281</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C296" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D296" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E296" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F296" t="n">
+        <v>7747.9149</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-3922519.26425628</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C297" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D297" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E297" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F297" t="n">
+        <v>8004.8983</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-3914514.36595628</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C298" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D298" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E298" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F298" t="n">
+        <v>9759.9354</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-3914514.36595628</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C299" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D299" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E299" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F299" t="n">
+        <v>32678.8318</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-3914514.36595628</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E300" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F300" t="n">
+        <v>4196.0493</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-3910318.31665628</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="C301" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D301" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="E301" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F301" t="n">
+        <v>21924.685</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-3932243.00165628</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C302" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D302" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E302" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F302" t="n">
+        <v>23622.706</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-3932243.00165628</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C303" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D303" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E303" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F303" t="n">
+        <v>627.298</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-3931615.70365628</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C304" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D304" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E304" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F304" t="n">
+        <v>49665.0144</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-3981280.718056281</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C305" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D305" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E305" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-3981280.718056281</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C306" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D306" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E306" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F306" t="n">
+        <v>100</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-3981180.718056281</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C307" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D307" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E307" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F307" t="n">
+        <v>7386.7394</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-3981180.718056281</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C308" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D308" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E308" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.0153</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-3981180.733356281</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C309" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D309" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E309" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1399.1415</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-3981180.733356281</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C310" t="n">
+        <v>12</v>
+      </c>
+      <c r="D310" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E310" t="n">
+        <v>12</v>
+      </c>
+      <c r="F310" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-3986180.733356281</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E311" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F311" t="n">
+        <v>50</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-3986130.733356281</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D312" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E312" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F312" t="n">
+        <v>591.7430000000001</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-3985538.990356281</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="C313" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="D313" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="E313" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F313" t="n">
+        <v>351.2985</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-3985890.288856281</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C314" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D314" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E314" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F314" t="n">
+        <v>42</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-3985848.288856281</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C315" t="n">
+        <v>12</v>
+      </c>
+      <c r="D315" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E315" t="n">
+        <v>12</v>
+      </c>
+      <c r="F315" t="n">
+        <v>106251.4374</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-4092099.726256281</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>12</v>
+      </c>
+      <c r="C316" t="n">
+        <v>12</v>
+      </c>
+      <c r="D316" t="n">
+        <v>12</v>
+      </c>
+      <c r="E316" t="n">
+        <v>12</v>
+      </c>
+      <c r="F316" t="n">
+        <v>64062.3556</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-4092099.726256281</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>12</v>
+      </c>
+      <c r="C317" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D317" t="n">
+        <v>12</v>
+      </c>
+      <c r="E317" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F317" t="n">
+        <v>46587.1191</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-4138686.845356281</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>12</v>
+      </c>
+      <c r="C318" t="n">
+        <v>12</v>
+      </c>
+      <c r="D318" t="n">
+        <v>12</v>
+      </c>
+      <c r="E318" t="n">
+        <v>12</v>
+      </c>
+      <c r="F318" t="n">
+        <v>50</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-4138636.845356281</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C319" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D319" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E319" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F319" t="n">
+        <v>15350.7812</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-4153987.626556281</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E320" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F320" t="n">
+        <v>14951.904</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-4168939.530556281</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="C321" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="D321" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="E321" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F321" t="n">
+        <v>361.7908</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-4168577.739756281</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C322" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D322" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E322" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F322" t="n">
+        <v>43</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-4168620.739756281</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C323" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D323" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E323" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F323" t="n">
+        <v>17034.5687</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-4168620.739756281</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J323" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="C324" t="n">
+        <v>12</v>
+      </c>
+      <c r="D324" t="n">
+        <v>12</v>
+      </c>
+      <c r="E324" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F324" t="n">
+        <v>101413.1346</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-4067207.605156281</v>
+      </c>
+      <c r="H324" t="n">
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J324" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C325" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D325" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E325" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F325" t="n">
+        <v>9728.1441</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-4076935.749256281</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>12</v>
+      </c>
+      <c r="J325" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C326" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D326" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E326" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F326" t="n">
+        <v>43</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-4076978.749256281</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J326" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C327" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D327" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E327" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F327" t="n">
+        <v>16179.032</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-4060799.717256281</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J327" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C328" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D328" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E328" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F328" t="n">
+        <v>855.5368</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-4060799.717256281</v>
+      </c>
+      <c r="H328" t="n">
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J328" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C329" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D329" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E329" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F329" t="n">
+        <v>43</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-4060756.717256281</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J329" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C330" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D330" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E330" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F330" t="n">
+        <v>474.9365</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-4060281.780756281</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="J330" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C331" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D331" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E331" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F331" t="n">
+        <v>293.6315</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-4060575.412256281</v>
+      </c>
+      <c r="H331" t="n">
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J331" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C332" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D332" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E332" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F332" t="n">
+        <v>6349.2833</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-4066924.695556281</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="J332" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C333" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D333" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E333" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F333" t="n">
+        <v>52469.6798</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-4119394.375356281</v>
+      </c>
+      <c r="H333" t="n">
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="J333" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K333" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C238" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D238" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E238" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F238" t="n">
-        <v>44496.3932</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-2190196.096144375</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C239" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D239" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E239" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F239" t="n">
-        <v>5553.4352</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-2190196.096144375</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C240" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D240" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E240" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F240" t="n">
-        <v>6999.9813</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-2183196.114844375</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C241" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D241" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E241" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F241" t="n">
-        <v>221.6655</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-2183196.114844375</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C242" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D242" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E242" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F242" t="n">
-        <v>5143.4161</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-2188339.530944375</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C243" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D243" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E243" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F243" t="n">
-        <v>8674.870000000001</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-2197014.400944375</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C244" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D244" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E244" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F244" t="n">
-        <v>388.9814</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-2197014.400944375</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J244" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C245" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D245" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E245" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F245" t="n">
-        <v>11750.2025</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-2185264.198444375</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="C246" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="D246" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="E246" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F246" t="n">
-        <v>9951.7832</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-2175312.415244375</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="J246" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C247" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D247" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E247" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F247" t="n">
-        <v>841.6848</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-2174470.730444375</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C248" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D248" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E248" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F248" t="n">
-        <v>18396.95944945516</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-2156073.77099492</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="C249" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="D249" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="E249" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F249" t="n">
-        <v>340214.86</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-2496288.63099492</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C250" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D250" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E250" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F250" t="n">
-        <v>340.5651</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-2495948.06589492</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C251" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D251" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E251" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F251" t="n">
-        <v>95700</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C252" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D252" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E252" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F252" t="n">
-        <v>388.3025</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C253" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D253" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E253" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F253" t="n">
-        <v>4163.074</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C254" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D254" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E254" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F254" t="n">
-        <v>85924.96610000001</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C255" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D255" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E255" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F255" t="n">
-        <v>9058.8262</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C256" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D256" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E256" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F256" t="n">
-        <v>37793.47805054484</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-2553854.587844375</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C257" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D257" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E257" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F257" t="n">
-        <v>45593.2097</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-2599447.797544375</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C258" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="D258" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="E258" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F258" t="n">
-        <v>887.0160078529658</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-2598560.781536522</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="C259" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="D259" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="E259" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="F259" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-2598560.781536522</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="C260" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="D260" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="E260" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="F260" t="n">
-        <v>2668.4241</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-2598560.781536522</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="C261" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="D261" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="E261" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F261" t="n">
-        <v>906</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-2597654.781536522</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="C262" t="n">
-        <v>12</v>
-      </c>
-      <c r="D262" t="n">
-        <v>12</v>
-      </c>
-      <c r="E262" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1121.0170885</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-2596533.764448022</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>12</v>
-      </c>
-      <c r="C263" t="n">
-        <v>12</v>
-      </c>
-      <c r="D263" t="n">
-        <v>12</v>
-      </c>
-      <c r="E263" t="n">
-        <v>12</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1827.9417115</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-2596533.764448022</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="C264" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="D264" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="E264" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1827.9417</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-2598361.706148022</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="C265" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="D265" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="E265" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F265" t="n">
-        <v>700.7709</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-2597660.935248022</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="C266" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D266" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E266" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F266" t="n">
-        <v>145</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-2597515.935248022</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C267" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D267" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E267" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F267" t="n">
-        <v>25623.9239</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-2597515.935248022</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C268" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D268" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E268" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F268" t="n">
-        <v>5037.2178</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-2592478.717448022</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C269" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D269" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E269" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F269" t="n">
-        <v>4044.1249</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-2596522.842348022</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C270" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D270" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E270" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F270" t="n">
-        <v>8870.7716</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-2596522.842348022</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D271" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E271" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F271" t="n">
-        <v>52944.7069</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-2543578.135448022</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C272" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D272" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F272" t="n">
-        <v>86091.6988</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-2629669.834248022</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C273" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D273" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F273" t="n">
-        <v>108820.1826</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-2738490.016848022</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C274" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D274" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F274" t="n">
-        <v>12500</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-2738490.016848022</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C275" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D275" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F275" t="n">
-        <v>3842.7496</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-2734647.267248022</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C276" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D276" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E276" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F276" t="n">
-        <v>57420.7673</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-2677226.499948022</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C277" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D277" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E277" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F277" t="n">
-        <v>3842.7496</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-2681069.249548022</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C278" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D278" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E278" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="F278" t="n">
-        <v>140903.6767</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-2821972.926248022</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C279" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="D279" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="E279" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F279" t="n">
-        <v>52367.41659174162</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-2769605.509656281</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C280" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="D280" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="E280" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F280" t="n">
-        <v>24109.9263</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-2793715.435956281</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C281" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D281" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E281" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="F281" t="n">
-        <v>15890</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-2809605.435956281</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="C282" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D282" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="E282" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F282" t="n">
-        <v>52.9225</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-2809552.513456281</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="C283" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D283" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="E283" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F283" t="n">
-        <v>21546.5165</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-2809552.513456281</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C284" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D284" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="E284" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F284" t="n">
-        <v>715574</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-3525126.513456281</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="C285" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D285" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="E285" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F285" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-3524126.513456281</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="C286" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="D286" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="E286" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F286" t="n">
-        <v>141318</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-3665444.513456281</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="C287" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="D287" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="E287" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="F287" t="n">
-        <v>42</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-3665402.513456281</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>12</v>
-      </c>
-      <c r="C288" t="n">
-        <v>12</v>
-      </c>
-      <c r="D288" t="n">
-        <v>12</v>
-      </c>
-      <c r="E288" t="n">
-        <v>12</v>
-      </c>
-      <c r="F288" t="n">
-        <v>3537.7385</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-3668940.251956281</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C289" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D289" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E289" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F289" t="n">
-        <v>123779.3513</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-3792719.603256281</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C290" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D290" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E290" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F290" t="n">
-        <v>104823.6572</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-3897543.260456281</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C291" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D291" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E291" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F291" t="n">
-        <v>19132</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-3878411.260456281</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C292" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D292" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E292" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F292" t="n">
-        <v>4543.5917</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-3878411.260456281</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J292" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C293" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D293" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E293" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F293" t="n">
-        <v>37983.9902</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-3916395.250656281</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J293" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C294" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D294" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E294" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F294" t="n">
-        <v>54495.5336</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-3916395.250656281</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J294" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="C295" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="D295" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="E295" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="F295" t="n">
-        <v>13871.9285</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-3930267.179156281</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J295" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C296" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="D296" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="E296" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F296" t="n">
-        <v>7747.9149</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-3922519.26425628</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J296" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C297" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="D297" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="E297" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F297" t="n">
-        <v>8004.8983</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-3914514.36595628</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="J297" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="C298" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="D298" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="E298" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F298" t="n">
-        <v>9759.9354</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-3914514.36595628</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="J298" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="C299" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="D299" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="E299" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F299" t="n">
-        <v>32678.8318</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-3914514.36595628</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="J299" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C300" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D300" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E300" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F300" t="n">
-        <v>4196.0493</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-3910318.31665628</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="J300" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="C301" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D301" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="E301" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F301" t="n">
-        <v>21924.685</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-3932243.00165628</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="C302" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D302" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E302" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F302" t="n">
-        <v>23622.706</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-3932243.00165628</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C303" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D303" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E303" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F303" t="n">
-        <v>627.298</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-3931615.70365628</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C304" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D304" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E304" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F304" t="n">
-        <v>49665.0144</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-3981280.718056281</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C305" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D305" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E305" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-3981280.718056281</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C306" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D306" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E306" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F306" t="n">
-        <v>100</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-3981180.718056281</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C307" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D307" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E307" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F307" t="n">
-        <v>7386.7394</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-3981180.718056281</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C308" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D308" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E308" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F308" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-3981180.733356281</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C309" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D309" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E309" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F309" t="n">
-        <v>1399.1415</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-3981180.733356281</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C310" t="n">
-        <v>12</v>
-      </c>
-      <c r="D310" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E310" t="n">
-        <v>12</v>
-      </c>
-      <c r="F310" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-3986180.733356281</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C311" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D311" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E311" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F311" t="n">
-        <v>50</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-3986130.733356281</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C312" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D312" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E312" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F312" t="n">
-        <v>591.7430000000001</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-3985538.990356281</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="C313" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="D313" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="E313" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="F313" t="n">
-        <v>351.2985</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-3985890.288856281</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C314" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D314" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E314" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F314" t="n">
-        <v>42</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-3985848.288856281</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C315" t="n">
-        <v>12</v>
-      </c>
-      <c r="D315" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E315" t="n">
-        <v>12</v>
-      </c>
-      <c r="F315" t="n">
-        <v>106251.4374</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-4092099.726256281</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>12</v>
-      </c>
-      <c r="C316" t="n">
-        <v>12</v>
-      </c>
-      <c r="D316" t="n">
-        <v>12</v>
-      </c>
-      <c r="E316" t="n">
-        <v>12</v>
-      </c>
-      <c r="F316" t="n">
-        <v>64062.3556</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-4092099.726256281</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>12</v>
-      </c>
-      <c r="C317" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="D317" t="n">
-        <v>12</v>
-      </c>
-      <c r="E317" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F317" t="n">
-        <v>46587.1191</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-4138686.845356281</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>12</v>
-      </c>
-      <c r="C318" t="n">
-        <v>12</v>
-      </c>
-      <c r="D318" t="n">
-        <v>12</v>
-      </c>
-      <c r="E318" t="n">
-        <v>12</v>
-      </c>
-      <c r="F318" t="n">
-        <v>50</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-4138636.845356281</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C319" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D319" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E319" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F319" t="n">
-        <v>15350.7812</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-4153987.626556281</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E320" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F320" t="n">
-        <v>14951.904</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-4168939.530556281</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="C321" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="D321" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="E321" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="F321" t="n">
-        <v>361.7908</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-4168577.739756281</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C322" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D322" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E322" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F322" t="n">
-        <v>43</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-4168620.739756281</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C323" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D323" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E323" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F323" t="n">
-        <v>17034.5687</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-4168620.739756281</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="C324" t="n">
-        <v>12</v>
-      </c>
-      <c r="D324" t="n">
-        <v>12</v>
-      </c>
-      <c r="E324" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="F324" t="n">
-        <v>101413.1346</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-4067207.605156281</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C325" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D325" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E325" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F325" t="n">
-        <v>9728.1441</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-4076935.749256281</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="C326" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="D326" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="E326" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="F326" t="n">
-        <v>43</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-4076978.749256281</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C327" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D327" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E327" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F327" t="n">
-        <v>16179.032</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-4060799.717256281</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C328" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D328" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E328" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F328" t="n">
-        <v>855.5368</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-4060799.717256281</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J328" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C329" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D329" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E329" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F329" t="n">
-        <v>43</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-4060756.717256281</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J329" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C330" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D330" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E330" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F330" t="n">
-        <v>474.9365</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-4060281.780756281</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J330" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C331" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D331" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E331" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F331" t="n">
-        <v>293.6315</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-4060575.412256281</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J331" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="C332" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="D332" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="E332" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F332" t="n">
-        <v>6349.2833</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-4066924.695556281</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C333" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D333" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E333" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="F333" t="n">
-        <v>52469.6798</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-4119394.375356281</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J333" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
       <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest TRV.xlsx
+++ b/BackTest/2020-01-11 BackTest TRV.xlsx
@@ -1540,7 +1540,7 @@
         <v>502839.7504685</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>511613.9381684999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>474804.7770684999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>494167.1337684999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>497667.0049213468</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>529385.1605213467</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>529385.1605213467</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>529425.1605213467</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>524496.4173213467</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>510001.1409213467</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>483329.1547213467</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>449049.0617213467</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>121240.4855213468</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>121469.0159213468</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>357493.0815213469</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>357693.0815213469</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>340365.7223213469</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>470978.7311213469</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>457443.2342213469</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>364083.8075213468</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>384860.8075213468</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>384901.8075213468</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>372451.1754213469</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>468834.9637213468</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>476797.2364213468</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>536361.7471213468</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>518486.5160213468</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>465574.9675213468</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>465449.8771213468</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>562174.9823213466</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>562284.7253213467</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>562679.4653213467</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -10747,10 +10747,14 @@
         <v>-3985848.288856281</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="J314" t="n">
+        <v>11.97</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
@@ -10783,8 +10787,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +10826,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11044,14 +11060,10 @@
         <v>-4168620.739756281</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J323" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
@@ -11089,11 +11101,7 @@
       <c r="J324" t="n">
         <v>11.9</v>
       </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11122,11 +11130,9 @@
         <v>-4076935.749256281</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
         <v>11.9</v>
       </c>
@@ -11171,7 +11177,11 @@
       <c r="J326" t="n">
         <v>11.9</v>
       </c>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11206,13 +11216,9 @@
         <v>11.77</v>
       </c>
       <c r="J327" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.77</v>
+      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11247,7 +11253,7 @@
         <v>11.78</v>
       </c>
       <c r="J328" t="n">
-        <v>11.9</v>
+        <v>11.77</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11288,9 +11294,13 @@
         <v>11.78</v>
       </c>
       <c r="J329" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
+        <v>11.77</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11325,13 +11335,9 @@
         <v>11.89</v>
       </c>
       <c r="J330" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.89</v>
+      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11366,11 +11372,11 @@
         <v>11.9</v>
       </c>
       <c r="J331" t="n">
-        <v>11.78</v>
+        <v>11.89</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L331" t="n">
@@ -11409,7 +11415,11 @@
       <c r="J332" t="n">
         <v>11.89</v>
       </c>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11448,7 +11458,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L333" t="n">

--- a/BackTest/2020-01-11 BackTest TRV.xlsx
+++ b/BackTest/2020-01-11 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M333"/>
+  <dimension ref="A1:L333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>35033.54606031008</v>
       </c>
       <c r="G2" t="n">
-        <v>568019.5429796434</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>132</v>
       </c>
       <c r="G3" t="n">
-        <v>567887.5429796434</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>897.3615</v>
       </c>
       <c r="G4" t="n">
-        <v>568784.9044796434</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3255.2118</v>
       </c>
       <c r="G5" t="n">
-        <v>568784.9044796434</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>96975.8409</v>
       </c>
       <c r="G6" t="n">
-        <v>665760.7453796434</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>50.1178</v>
       </c>
       <c r="G7" t="n">
-        <v>665810.8631796434</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>19648.2962</v>
       </c>
       <c r="G8" t="n">
-        <v>646162.5669796434</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>40531.0395</v>
       </c>
       <c r="G9" t="n">
-        <v>646162.5669796434</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>95410.6116</v>
       </c>
       <c r="G10" t="n">
-        <v>550751.9553796435</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>10849.2234</v>
       </c>
       <c r="G11" t="n">
-        <v>561601.1787796435</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>561556.1787796435</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>136.1121</v>
       </c>
       <c r="G13" t="n">
-        <v>561692.2908796435</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>561647.2908796435</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>56.533</v>
       </c>
       <c r="G15" t="n">
-        <v>561703.8238796436</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1574.3756</v>
       </c>
       <c r="G16" t="n">
-        <v>561703.8238796436</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>41</v>
       </c>
       <c r="G17" t="n">
-        <v>561662.8238796436</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>50.2277</v>
       </c>
       <c r="G18" t="n">
-        <v>561713.0515796436</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>58.9993</v>
       </c>
       <c r="G19" t="n">
-        <v>561654.0522796436</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>808.9902713264496</v>
       </c>
       <c r="G20" t="n">
-        <v>562463.0425509701</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2937.8809</v>
       </c>
       <c r="G21" t="n">
-        <v>559525.1616509701</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>61507.7686</v>
       </c>
       <c r="G22" t="n">
-        <v>498017.3930509701</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>5772.04</v>
       </c>
       <c r="G23" t="n">
-        <v>498017.3930509701</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>507.1331</v>
       </c>
       <c r="G24" t="n">
-        <v>498524.5261509701</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>236.7644</v>
       </c>
       <c r="G25" t="n">
-        <v>498287.7617509701</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>15753.1627</v>
       </c>
       <c r="G26" t="n">
-        <v>498287.7617509701</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>236.7644</v>
       </c>
       <c r="G27" t="n">
-        <v>498050.9973509701</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>116.0956175298805</v>
       </c>
       <c r="G28" t="n">
-        <v>498167.0929685</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>498122.0929685</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3026.2508</v>
       </c>
       <c r="G30" t="n">
-        <v>501148.3437685</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>454</v>
       </c>
       <c r="G31" t="n">
-        <v>501602.3437685</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1388.1046</v>
       </c>
       <c r="G32" t="n">
-        <v>502990.4483685</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>202.8932</v>
       </c>
       <c r="G33" t="n">
-        <v>502787.5551685</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>94.1953</v>
       </c>
       <c r="G34" t="n">
-        <v>502881.7504685</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>42</v>
       </c>
       <c r="G35" t="n">
-        <v>502839.7504685</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>24121.9804</v>
       </c>
       <c r="G36" t="n">
-        <v>526961.7308685</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>32241.487</v>
       </c>
       <c r="G37" t="n">
-        <v>494720.2438684999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>16893.6943</v>
       </c>
       <c r="G38" t="n">
-        <v>511613.9381684999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>36809.1611</v>
       </c>
       <c r="G39" t="n">
-        <v>474804.7770684999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>19362.3567</v>
       </c>
       <c r="G40" t="n">
-        <v>494167.1337684999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>469.3024</v>
       </c>
       <c r="G41" t="n">
-        <v>493697.8313685</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>108474.6936</v>
       </c>
       <c r="G42" t="n">
-        <v>493697.8313685</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>83</v>
       </c>
       <c r="G43" t="n">
-        <v>493697.8313685</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>360.7171</v>
       </c>
       <c r="G44" t="n">
-        <v>494058.5484685</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>66712</v>
       </c>
       <c r="G45" t="n">
-        <v>427346.5484685</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2519.4036</v>
       </c>
       <c r="G46" t="n">
-        <v>429865.9520685</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1032.5262</v>
       </c>
       <c r="G47" t="n">
-        <v>429865.9520685</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>64875.2484</v>
       </c>
       <c r="G48" t="n">
-        <v>429865.9520685</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>777</v>
       </c>
       <c r="G49" t="n">
-        <v>429865.9520685</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>8991.172699999999</v>
       </c>
       <c r="G50" t="n">
-        <v>420874.7793685</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>19992.4433</v>
       </c>
       <c r="G51" t="n">
-        <v>440867.2226685</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>4437.5076</v>
       </c>
       <c r="G52" t="n">
-        <v>445304.7302685</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5029.3872</v>
       </c>
       <c r="G53" t="n">
-        <v>445304.7302685</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>5029.4672</v>
       </c>
       <c r="G54" t="n">
-        <v>445304.7302685</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>216.5196471531676</v>
       </c>
       <c r="G55" t="n">
-        <v>445304.7302685</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>52362.27465284683</v>
       </c>
       <c r="G56" t="n">
-        <v>497667.0049213468</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>4389.2028</v>
       </c>
       <c r="G57" t="n">
-        <v>497667.0049213468</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>65497.7133</v>
       </c>
       <c r="G58" t="n">
-        <v>497667.0049213468</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>811.6883</v>
       </c>
       <c r="G59" t="n">
-        <v>498478.6932213468</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>30906.4673</v>
       </c>
       <c r="G60" t="n">
-        <v>529385.1605213467</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1440.7409</v>
       </c>
       <c r="G61" t="n">
-        <v>529385.1605213467</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>529425.1605213467</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>150</v>
       </c>
       <c r="G63" t="n">
-        <v>529425.1605213467</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3826.0531</v>
       </c>
       <c r="G64" t="n">
-        <v>529425.1605213467</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>61634.3575</v>
       </c>
       <c r="G65" t="n">
-        <v>591059.5180213468</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2136.4194</v>
       </c>
       <c r="G66" t="n">
-        <v>591059.5180213468</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>380.6537</v>
       </c>
       <c r="G67" t="n">
-        <v>590678.8643213467</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>335.0072</v>
       </c>
       <c r="G68" t="n">
-        <v>591013.8715213467</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>5970.6172</v>
       </c>
       <c r="G69" t="n">
-        <v>585043.2543213468</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>3484.2286</v>
       </c>
       <c r="G70" t="n">
-        <v>581559.0257213467</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>41</v>
       </c>
       <c r="G71" t="n">
-        <v>581600.0257213467</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>57103.6084</v>
       </c>
       <c r="G72" t="n">
-        <v>524496.4173213467</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>14495.2764</v>
       </c>
       <c r="G73" t="n">
-        <v>510001.1409213467</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>26671.9862</v>
       </c>
       <c r="G74" t="n">
-        <v>483329.1547213467</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>34280.093</v>
       </c>
       <c r="G75" t="n">
-        <v>449049.0617213467</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>3354.5545</v>
       </c>
       <c r="G76" t="n">
-        <v>449049.0617213467</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>7168.5191</v>
       </c>
       <c r="G77" t="n">
-        <v>441880.5426213468</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>7573.0754</v>
       </c>
       <c r="G78" t="n">
-        <v>441880.5426213468</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>9304.0049</v>
       </c>
       <c r="G79" t="n">
-        <v>432576.5377213468</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>418.4917</v>
       </c>
       <c r="G80" t="n">
-        <v>432995.0294213468</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>29708.7467</v>
       </c>
       <c r="G81" t="n">
-        <v>403286.2827213468</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>84558.8633</v>
       </c>
       <c r="G82" t="n">
-        <v>403286.2827213468</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>4215.7096</v>
       </c>
       <c r="G83" t="n">
-        <v>399070.5731213468</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>30653.0036</v>
       </c>
       <c r="G84" t="n">
-        <v>429723.5767213468</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>58990.5889</v>
       </c>
       <c r="G85" t="n">
-        <v>370732.9878213467</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>142</v>
       </c>
       <c r="G86" t="n">
-        <v>370874.9878213467</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>689.9467</v>
       </c>
       <c r="G87" t="n">
-        <v>370185.0411213468</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1131.9467</v>
       </c>
       <c r="G88" t="n">
-        <v>371316.9878213467</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>4835.4455</v>
       </c>
       <c r="G89" t="n">
-        <v>371316.9878213467</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>2864.748</v>
       </c>
       <c r="G90" t="n">
-        <v>374181.7358213468</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>7177.2352</v>
       </c>
       <c r="G91" t="n">
-        <v>367004.5006213468</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>11369.227</v>
       </c>
       <c r="G92" t="n">
-        <v>355635.2736213467</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>28730.2256</v>
       </c>
       <c r="G93" t="n">
-        <v>326905.0480213467</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>4879.3499</v>
       </c>
       <c r="G94" t="n">
-        <v>322025.6981213468</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>2535.0042</v>
       </c>
       <c r="G95" t="n">
-        <v>324560.7023213468</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>3417.1272</v>
       </c>
       <c r="G96" t="n">
-        <v>321143.5751213468</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>65705.8452</v>
       </c>
       <c r="G97" t="n">
-        <v>255437.7299213468</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1200</v>
       </c>
       <c r="G98" t="n">
-        <v>256637.7299213468</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>27141.7223</v>
       </c>
       <c r="G99" t="n">
-        <v>256637.7299213468</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>4665.9822</v>
       </c>
       <c r="G100" t="n">
-        <v>261303.7121213468</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>4495.8332</v>
       </c>
       <c r="G101" t="n">
-        <v>265799.5453213468</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>95234.6735</v>
       </c>
       <c r="G102" t="n">
-        <v>170564.8718213468</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>34095.2413</v>
       </c>
       <c r="G103" t="n">
-        <v>170564.8718213468</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>179916.6779</v>
       </c>
       <c r="G104" t="n">
-        <v>-9351.806078653171</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2370.8131</v>
       </c>
       <c r="G105" t="n">
-        <v>-9351.806078653171</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,19 @@
         <v>45</v>
       </c>
       <c r="G106" t="n">
-        <v>-9306.806078653171</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11.6</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3597,23 @@
         <v>13317.799</v>
       </c>
       <c r="G107" t="n">
-        <v>-9306.806078653171</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="I107" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3635,23 @@
         <v>39829.6453</v>
       </c>
       <c r="G108" t="n">
-        <v>30522.83922134683</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3673,19 @@
         <v>11484.9451</v>
       </c>
       <c r="G109" t="n">
-        <v>30522.83922134683</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="I109" t="n">
+        <v>11.85</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3707,23 @@
         <v>1225.6503</v>
       </c>
       <c r="G110" t="n">
-        <v>31748.48952134683</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="I110" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3745,23 @@
         <v>7856.7558</v>
       </c>
       <c r="G111" t="n">
-        <v>31748.48952134683</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>11.98</v>
+      </c>
+      <c r="I111" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3783,19 @@
         <v>45</v>
       </c>
       <c r="G112" t="n">
-        <v>31793.48952134683</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>11.98</v>
+      </c>
+      <c r="I112" t="n">
+        <v>11.98</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3817,23 @@
         <v>2819.748</v>
       </c>
       <c r="G113" t="n">
-        <v>31793.48952134683</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3855,21 @@
         <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>31843.48952134683</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3891,15 @@
         <v>11267.823</v>
       </c>
       <c r="G115" t="n">
-        <v>20575.66652134683</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3921,15 @@
         <v>31300.1029</v>
       </c>
       <c r="G116" t="n">
-        <v>51875.76942134683</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3951,15 @@
         <v>946.6523999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>52822.42182134683</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3981,15 @@
         <v>872.8867</v>
       </c>
       <c r="G118" t="n">
-        <v>52822.42182134683</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4011,15 @@
         <v>80988.4143</v>
       </c>
       <c r="G119" t="n">
-        <v>-28165.99247865318</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4041,15 @@
         <v>23206.3792</v>
       </c>
       <c r="G120" t="n">
-        <v>-4959.613278653178</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4071,15 @@
         <v>2198.6101</v>
       </c>
       <c r="G121" t="n">
-        <v>-7158.223378653178</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4101,15 @@
         <v>165740.6195</v>
       </c>
       <c r="G122" t="n">
-        <v>158582.3961213468</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4131,15 @@
         <v>87416.5114</v>
       </c>
       <c r="G123" t="n">
-        <v>158582.3961213468</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4161,15 @@
         <v>55.5053</v>
       </c>
       <c r="G124" t="n">
-        <v>158526.8908213468</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4191,15 @@
         <v>63575.8878</v>
       </c>
       <c r="G125" t="n">
-        <v>158526.8908213468</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4221,15 @@
         <v>66980.41379999999</v>
       </c>
       <c r="G126" t="n">
-        <v>225507.3046213468</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4251,15 @@
         <v>104266.8191</v>
       </c>
       <c r="G127" t="n">
-        <v>121240.4855213468</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4281,15 @@
         <v>228.5304</v>
       </c>
       <c r="G128" t="n">
-        <v>121469.0159213468</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4311,15 @@
         <v>80410.16409999999</v>
       </c>
       <c r="G129" t="n">
-        <v>201879.1800213468</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4341,15 @@
         <v>9259.0931</v>
       </c>
       <c r="G130" t="n">
-        <v>192620.0869213468</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4371,15 @@
         <v>406142.7529</v>
       </c>
       <c r="G131" t="n">
-        <v>-213522.6659786532</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4401,15 @@
         <v>571015.7475000001</v>
       </c>
       <c r="G132" t="n">
-        <v>357493.0815213469</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4431,15 @@
         <v>902.1659</v>
       </c>
       <c r="G133" t="n">
-        <v>357493.0815213469</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4461,15 @@
         <v>200</v>
       </c>
       <c r="G134" t="n">
-        <v>357693.0815213469</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4491,15 @@
         <v>17327.3592</v>
       </c>
       <c r="G135" t="n">
-        <v>340365.7223213469</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4521,15 @@
         <v>130613.0088</v>
       </c>
       <c r="G136" t="n">
-        <v>470978.7311213469</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4551,15 @@
         <v>77454.4463</v>
       </c>
       <c r="G137" t="n">
-        <v>470978.7311213469</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4581,15 @@
         <v>8864.973900000001</v>
       </c>
       <c r="G138" t="n">
-        <v>470978.7311213469</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4611,15 @@
         <v>5868.2046</v>
       </c>
       <c r="G139" t="n">
-        <v>470978.7311213469</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4641,15 @@
         <v>13535.4969</v>
       </c>
       <c r="G140" t="n">
-        <v>457443.2342213469</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4671,15 @@
         <v>93359.4267</v>
       </c>
       <c r="G141" t="n">
-        <v>364083.8075213468</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4701,15 @@
         <v>20777</v>
       </c>
       <c r="G142" t="n">
-        <v>384860.8075213468</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4731,15 @@
         <v>41</v>
       </c>
       <c r="G143" t="n">
-        <v>384901.8075213468</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4761,15 @@
         <v>12450.6321</v>
       </c>
       <c r="G144" t="n">
-        <v>372451.1754213469</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4791,15 @@
         <v>41</v>
       </c>
       <c r="G145" t="n">
-        <v>372492.1754213469</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4821,15 @@
         <v>88884.5787</v>
       </c>
       <c r="G146" t="n">
-        <v>461376.7541213469</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4851,15 @@
         <v>8037.9994</v>
       </c>
       <c r="G147" t="n">
-        <v>469414.7535213468</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4881,15 @@
         <v>5000</v>
       </c>
       <c r="G148" t="n">
-        <v>464414.7535213468</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4911,15 @@
         <v>4420.2102</v>
       </c>
       <c r="G149" t="n">
-        <v>468834.9637213468</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4941,15 @@
         <v>7962.2727</v>
       </c>
       <c r="G150" t="n">
-        <v>476797.2364213468</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4971,15 @@
         <v>59564.5107</v>
       </c>
       <c r="G151" t="n">
-        <v>536361.7471213468</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5001,15 @@
         <v>17915.2311</v>
       </c>
       <c r="G152" t="n">
-        <v>518446.5160213468</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5031,15 @@
         <v>40</v>
       </c>
       <c r="G153" t="n">
-        <v>518486.5160213468</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5061,15 @@
         <v>100</v>
       </c>
       <c r="G154" t="n">
-        <v>518486.5160213468</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5091,15 @@
         <v>42610.7442</v>
       </c>
       <c r="G155" t="n">
-        <v>475875.7718213468</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5121,15 @@
         <v>49486.2697</v>
       </c>
       <c r="G156" t="n">
-        <v>475875.7718213468</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5151,15 @@
         <v>10300.8043</v>
       </c>
       <c r="G157" t="n">
-        <v>465574.9675213468</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5181,15 @@
         <v>125.0904</v>
       </c>
       <c r="G158" t="n">
-        <v>465449.8771213468</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5211,15 @@
         <v>4420.2102</v>
       </c>
       <c r="G159" t="n">
-        <v>465449.8771213468</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5241,15 @@
         <v>81.43819999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>465531.3153213467</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5271,15 @@
         <v>750.5085</v>
       </c>
       <c r="G161" t="n">
-        <v>464780.8068213467</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5301,15 @@
         <v>331.9951</v>
       </c>
       <c r="G162" t="n">
-        <v>465112.8019213467</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5331,15 @@
         <v>112345</v>
       </c>
       <c r="G163" t="n">
-        <v>577457.8019213467</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5361,15 @@
         <v>916.1771</v>
       </c>
       <c r="G164" t="n">
-        <v>578373.9790213467</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5391,15 @@
         <v>8179.572</v>
       </c>
       <c r="G165" t="n">
-        <v>570194.4070213466</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5421,15 @@
         <v>40</v>
       </c>
       <c r="G166" t="n">
-        <v>570234.4070213466</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5451,15 @@
         <v>8059.4247</v>
       </c>
       <c r="G167" t="n">
-        <v>562174.9823213466</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5481,15 @@
         <v>18228.4875</v>
       </c>
       <c r="G168" t="n">
-        <v>562174.9823213466</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5511,15 @@
         <v>212740.5345</v>
       </c>
       <c r="G169" t="n">
-        <v>562174.9823213466</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5541,15 @@
         <v>109.743</v>
       </c>
       <c r="G170" t="n">
-        <v>562284.7253213467</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5571,15 @@
         <v>70203.053</v>
       </c>
       <c r="G171" t="n">
-        <v>562284.7253213467</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5601,15 @@
         <v>394.74</v>
       </c>
       <c r="G172" t="n">
-        <v>562679.4653213467</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5631,15 @@
         <v>17670.9725</v>
       </c>
       <c r="G173" t="n">
-        <v>545008.4928213466</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5661,15 @@
         <v>31546.118</v>
       </c>
       <c r="G174" t="n">
-        <v>545008.4928213466</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5691,15 @@
         <v>108013.2284</v>
       </c>
       <c r="G175" t="n">
-        <v>436995.2644213466</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5721,15 @@
         <v>9648.32</v>
       </c>
       <c r="G176" t="n">
-        <v>446643.5844213466</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5751,15 @@
         <v>381.68</v>
       </c>
       <c r="G177" t="n">
-        <v>446643.5844213466</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5781,15 @@
         <v>118860.3775</v>
       </c>
       <c r="G178" t="n">
-        <v>327783.2069213466</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5811,15 @@
         <v>118860.3776</v>
       </c>
       <c r="G179" t="n">
-        <v>208922.8293213466</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5841,15 @@
         <v>41</v>
       </c>
       <c r="G180" t="n">
-        <v>208963.8293213466</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5871,15 @@
         <v>1277.9893</v>
       </c>
       <c r="G181" t="n">
-        <v>207685.8400213466</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5901,15 @@
         <v>11335.3261</v>
       </c>
       <c r="G182" t="n">
-        <v>196350.5139213466</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5931,15 @@
         <v>200</v>
       </c>
       <c r="G183" t="n">
-        <v>196550.5139213466</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5961,15 @@
         <v>1775.8922</v>
       </c>
       <c r="G184" t="n">
-        <v>196550.5139213466</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5991,15 @@
         <v>12525.229</v>
       </c>
       <c r="G185" t="n">
-        <v>196550.5139213466</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6021,15 @@
         <v>54.3669</v>
       </c>
       <c r="G186" t="n">
-        <v>196604.8808213466</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6051,15 @@
         <v>19339.9841</v>
       </c>
       <c r="G187" t="n">
-        <v>196604.8808213466</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6081,15 @@
         <v>27833.4531</v>
       </c>
       <c r="G188" t="n">
-        <v>168771.4277213466</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6111,15 @@
         <v>57781.5277</v>
       </c>
       <c r="G189" t="n">
-        <v>110989.9000213466</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6141,15 @@
         <v>219.0937</v>
       </c>
       <c r="G190" t="n">
-        <v>111208.9937213466</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6171,15 @@
         <v>57110.7505</v>
       </c>
       <c r="G191" t="n">
-        <v>54098.2432213466</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6201,15 @@
         <v>80561.458</v>
       </c>
       <c r="G192" t="n">
-        <v>54098.2432213466</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6231,15 @@
         <v>421730.5538</v>
       </c>
       <c r="G193" t="n">
-        <v>-367632.3105786534</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6261,15 @@
         <v>343.4454</v>
       </c>
       <c r="G194" t="n">
-        <v>-367288.8651786534</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6291,15 @@
         <v>7962.2727</v>
       </c>
       <c r="G195" t="n">
-        <v>-367288.8651786534</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6321,15 @@
         <v>18659.6713</v>
       </c>
       <c r="G196" t="n">
-        <v>-348629.1938786534</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6351,15 @@
         <v>16729.8773</v>
       </c>
       <c r="G197" t="n">
-        <v>-365359.0711786534</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6381,15 @@
         <v>92097.01390000001</v>
       </c>
       <c r="G198" t="n">
-        <v>-457456.0850786534</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6411,15 @@
         <v>2188.3813</v>
       </c>
       <c r="G199" t="n">
-        <v>-455267.7037786534</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6441,15 @@
         <v>57685.4983</v>
       </c>
       <c r="G200" t="n">
-        <v>-512953.2020786534</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6471,15 @@
         <v>771.5785</v>
       </c>
       <c r="G201" t="n">
-        <v>-512181.6235786534</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6501,15 @@
         <v>38081.1151</v>
       </c>
       <c r="G202" t="n">
-        <v>-550262.7386786534</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6531,15 @@
         <v>305190.4445</v>
       </c>
       <c r="G203" t="n">
-        <v>-855453.1831786534</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6561,15 @@
         <v>53941.3881</v>
       </c>
       <c r="G204" t="n">
-        <v>-855453.1831786534</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6591,15 @@
         <v>198.274</v>
       </c>
       <c r="G205" t="n">
-        <v>-855254.9091786534</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6621,15 @@
         <v>48566.3833</v>
       </c>
       <c r="G206" t="n">
-        <v>-855254.9091786534</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6651,15 @@
         <v>1113659.4603</v>
       </c>
       <c r="G207" t="n">
-        <v>-1968914.369478653</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6681,15 @@
         <v>9573.227699999999</v>
       </c>
       <c r="G208" t="n">
-        <v>-1959341.141778653</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6711,15 @@
         <v>5951.7808</v>
       </c>
       <c r="G209" t="n">
-        <v>-1965292.922578653</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6741,15 @@
         <v>93528.50410000001</v>
       </c>
       <c r="G210" t="n">
-        <v>-1871764.418478653</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6771,15 @@
         <v>100</v>
       </c>
       <c r="G211" t="n">
-        <v>-1871764.418478653</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6801,15 @@
         <v>50</v>
       </c>
       <c r="G212" t="n">
-        <v>-1871714.418478653</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6831,15 @@
         <v>47140.7103</v>
       </c>
       <c r="G213" t="n">
-        <v>-1918855.128778653</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6861,15 @@
         <v>242772.5116</v>
       </c>
       <c r="G214" t="n">
-        <v>-1676082.617178653</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6891,15 @@
         <v>415818.1622</v>
       </c>
       <c r="G215" t="n">
-        <v>-2091900.779378653</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6921,15 @@
         <v>5623.1876</v>
       </c>
       <c r="G216" t="n">
-        <v>-2091900.779378653</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6951,15 @@
         <v>27585.8599</v>
       </c>
       <c r="G217" t="n">
-        <v>-2119486.639278653</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6981,15 @@
         <v>121166.6478</v>
       </c>
       <c r="G218" t="n">
-        <v>-1998319.991478653</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7011,15 @@
         <v>20151.133</v>
       </c>
       <c r="G219" t="n">
-        <v>-2018471.124478653</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7041,15 @@
         <v>50.4683</v>
       </c>
       <c r="G220" t="n">
-        <v>-2018521.592778653</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7071,15 @@
         <v>63886.3656</v>
       </c>
       <c r="G221" t="n">
-        <v>-1954635.227178653</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7101,15 @@
         <v>524.6796000000001</v>
       </c>
       <c r="G222" t="n">
-        <v>-1955159.906778653</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7131,15 @@
         <v>12469.16153427857</v>
       </c>
       <c r="G223" t="n">
-        <v>-1942690.745244374</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7161,15 @@
         <v>2271.0981</v>
       </c>
       <c r="G224" t="n">
-        <v>-1944961.843344375</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7191,15 @@
         <v>107033.672</v>
       </c>
       <c r="G225" t="n">
-        <v>-1944961.843344375</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7221,15 @@
         <v>7400</v>
       </c>
       <c r="G226" t="n">
-        <v>-1937561.843344375</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7251,15 @@
         <v>9591.7943</v>
       </c>
       <c r="G227" t="n">
-        <v>-1947153.637644375</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7281,15 @@
         <v>11374.2744</v>
       </c>
       <c r="G228" t="n">
-        <v>-1958527.912044375</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7311,15 @@
         <v>118972.4217</v>
       </c>
       <c r="G229" t="n">
-        <v>-2077500.333744375</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7341,15 @@
         <v>47976.2136</v>
       </c>
       <c r="G230" t="n">
-        <v>-2125476.547344374</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7371,15 @@
         <v>932.5766</v>
       </c>
       <c r="G231" t="n">
-        <v>-2124543.970744375</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7401,15 @@
         <v>23722.6867</v>
       </c>
       <c r="G232" t="n">
-        <v>-2124543.970744375</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7431,15 @@
         <v>2074.4112</v>
       </c>
       <c r="G233" t="n">
-        <v>-2124543.970744375</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7461,15 @@
         <v>64422.5369</v>
       </c>
       <c r="G234" t="n">
-        <v>-2188966.507644375</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7491,15 @@
         <v>3583.331</v>
       </c>
       <c r="G235" t="n">
-        <v>-2192549.838644375</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7521,15 @@
         <v>56297.7731</v>
       </c>
       <c r="G236" t="n">
-        <v>-2192549.838644375</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7551,15 @@
         <v>42142.6507</v>
       </c>
       <c r="G237" t="n">
-        <v>-2234692.489344375</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7581,15 @@
         <v>44496.3932</v>
       </c>
       <c r="G238" t="n">
-        <v>-2190196.096144375</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7611,15 @@
         <v>5553.4352</v>
       </c>
       <c r="G239" t="n">
-        <v>-2190196.096144375</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7641,15 @@
         <v>6999.9813</v>
       </c>
       <c r="G240" t="n">
-        <v>-2183196.114844375</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7671,15 @@
         <v>221.6655</v>
       </c>
       <c r="G241" t="n">
-        <v>-2183196.114844375</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7701,15 @@
         <v>5143.4161</v>
       </c>
       <c r="G242" t="n">
-        <v>-2188339.530944375</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7731,15 @@
         <v>8674.870000000001</v>
       </c>
       <c r="G243" t="n">
-        <v>-2197014.400944375</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7761,19 @@
         <v>388.9814</v>
       </c>
       <c r="G244" t="n">
-        <v>-2197014.400944375</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="I244" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7795,23 @@
         <v>11750.2025</v>
       </c>
       <c r="G245" t="n">
-        <v>-2185264.198444375</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="I245" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7833,23 @@
         <v>9951.7832</v>
       </c>
       <c r="G246" t="n">
-        <v>-2175312.415244375</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>11.79</v>
+      </c>
+      <c r="I246" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7871,19 @@
         <v>841.6848</v>
       </c>
       <c r="G247" t="n">
-        <v>-2174470.730444375</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>11.83</v>
+      </c>
+      <c r="I247" t="n">
+        <v>11.83</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7905,23 @@
         <v>18396.95944945516</v>
       </c>
       <c r="G248" t="n">
-        <v>-2156073.77099492</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="I248" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7943,21 @@
         <v>340214.86</v>
       </c>
       <c r="G249" t="n">
-        <v>-2496288.63099492</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7979,21 @@
         <v>340.5651</v>
       </c>
       <c r="G250" t="n">
-        <v>-2495948.06589492</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8015,21 @@
         <v>95700</v>
       </c>
       <c r="G251" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8051,21 @@
         <v>388.3025</v>
       </c>
       <c r="G252" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8087,21 @@
         <v>4163.074</v>
       </c>
       <c r="G253" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8123,21 @@
         <v>85924.96610000001</v>
       </c>
       <c r="G254" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8159,21 @@
         <v>9058.8262</v>
       </c>
       <c r="G255" t="n">
-        <v>-2591648.06589492</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8195,21 @@
         <v>37793.47805054484</v>
       </c>
       <c r="G256" t="n">
-        <v>-2553854.587844375</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8231,21 @@
         <v>45593.2097</v>
       </c>
       <c r="G257" t="n">
-        <v>-2599447.797544375</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8267,21 @@
         <v>887.0160078529658</v>
       </c>
       <c r="G258" t="n">
-        <v>-2598560.781536522</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8303,21 @@
         <v>10000</v>
       </c>
       <c r="G259" t="n">
-        <v>-2598560.781536522</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8339,21 @@
         <v>2668.4241</v>
       </c>
       <c r="G260" t="n">
-        <v>-2598560.781536522</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8375,21 @@
         <v>906</v>
       </c>
       <c r="G261" t="n">
-        <v>-2597654.781536522</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8411,21 @@
         <v>1121.0170885</v>
       </c>
       <c r="G262" t="n">
-        <v>-2596533.764448022</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8447,21 @@
         <v>1827.9417115</v>
       </c>
       <c r="G263" t="n">
-        <v>-2596533.764448022</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8483,21 @@
         <v>1827.9417</v>
       </c>
       <c r="G264" t="n">
-        <v>-2598361.706148022</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8519,21 @@
         <v>700.7709</v>
       </c>
       <c r="G265" t="n">
-        <v>-2597660.935248022</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8555,21 @@
         <v>145</v>
       </c>
       <c r="G266" t="n">
-        <v>-2597515.935248022</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8591,21 @@
         <v>25623.9239</v>
       </c>
       <c r="G267" t="n">
-        <v>-2597515.935248022</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8627,21 @@
         <v>5037.2178</v>
       </c>
       <c r="G268" t="n">
-        <v>-2592478.717448022</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8663,21 @@
         <v>4044.1249</v>
       </c>
       <c r="G269" t="n">
-        <v>-2596522.842348022</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8699,21 @@
         <v>8870.7716</v>
       </c>
       <c r="G270" t="n">
-        <v>-2596522.842348022</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8735,21 @@
         <v>52944.7069</v>
       </c>
       <c r="G271" t="n">
-        <v>-2543578.135448022</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8771,21 @@
         <v>86091.6988</v>
       </c>
       <c r="G272" t="n">
-        <v>-2629669.834248022</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8807,21 @@
         <v>108820.1826</v>
       </c>
       <c r="G273" t="n">
-        <v>-2738490.016848022</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8843,21 @@
         <v>12500</v>
       </c>
       <c r="G274" t="n">
-        <v>-2738490.016848022</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8879,21 @@
         <v>3842.7496</v>
       </c>
       <c r="G275" t="n">
-        <v>-2734647.267248022</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8915,21 @@
         <v>57420.7673</v>
       </c>
       <c r="G276" t="n">
-        <v>-2677226.499948022</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8951,21 @@
         <v>3842.7496</v>
       </c>
       <c r="G277" t="n">
-        <v>-2681069.249548022</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8987,21 @@
         <v>140903.6767</v>
       </c>
       <c r="G278" t="n">
-        <v>-2821972.926248022</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +9023,21 @@
         <v>52367.41659174162</v>
       </c>
       <c r="G279" t="n">
-        <v>-2769605.509656281</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +9059,21 @@
         <v>24109.9263</v>
       </c>
       <c r="G280" t="n">
-        <v>-2793715.435956281</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +9095,21 @@
         <v>15890</v>
       </c>
       <c r="G281" t="n">
-        <v>-2809605.435956281</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +9131,21 @@
         <v>52.9225</v>
       </c>
       <c r="G282" t="n">
-        <v>-2809552.513456281</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +9167,21 @@
         <v>21546.5165</v>
       </c>
       <c r="G283" t="n">
-        <v>-2809552.513456281</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +9203,21 @@
         <v>715574</v>
       </c>
       <c r="G284" t="n">
-        <v>-3525126.513456281</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +9239,21 @@
         <v>1000</v>
       </c>
       <c r="G285" t="n">
-        <v>-3524126.513456281</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +9275,21 @@
         <v>141318</v>
       </c>
       <c r="G286" t="n">
-        <v>-3665444.513456281</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9311,21 @@
         <v>42</v>
       </c>
       <c r="G287" t="n">
-        <v>-3665402.513456281</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9347,21 @@
         <v>3537.7385</v>
       </c>
       <c r="G288" t="n">
-        <v>-3668940.251956281</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9383,21 @@
         <v>123779.3513</v>
       </c>
       <c r="G289" t="n">
-        <v>-3792719.603256281</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9419,21 @@
         <v>104823.6572</v>
       </c>
       <c r="G290" t="n">
-        <v>-3897543.260456281</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9455,21 @@
         <v>19132</v>
       </c>
       <c r="G291" t="n">
-        <v>-3878411.260456281</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9491,21 @@
         <v>4543.5917</v>
       </c>
       <c r="G292" t="n">
-        <v>-3878411.260456281</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9527,21 @@
         <v>37983.9902</v>
       </c>
       <c r="G293" t="n">
-        <v>-3916395.250656281</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9563,21 @@
         <v>54495.5336</v>
       </c>
       <c r="G294" t="n">
-        <v>-3916395.250656281</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9599,21 @@
         <v>13871.9285</v>
       </c>
       <c r="G295" t="n">
-        <v>-3930267.179156281</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9635,21 @@
         <v>7747.9149</v>
       </c>
       <c r="G296" t="n">
-        <v>-3922519.26425628</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9671,21 @@
         <v>8004.8983</v>
       </c>
       <c r="G297" t="n">
-        <v>-3914514.36595628</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9707,21 @@
         <v>9759.9354</v>
       </c>
       <c r="G298" t="n">
-        <v>-3914514.36595628</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9743,21 @@
         <v>32678.8318</v>
       </c>
       <c r="G299" t="n">
-        <v>-3914514.36595628</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9779,21 @@
         <v>4196.0493</v>
       </c>
       <c r="G300" t="n">
-        <v>-3910318.31665628</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9815,21 @@
         <v>21924.685</v>
       </c>
       <c r="G301" t="n">
-        <v>-3932243.00165628</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9851,21 @@
         <v>23622.706</v>
       </c>
       <c r="G302" t="n">
-        <v>-3932243.00165628</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9887,21 @@
         <v>627.298</v>
       </c>
       <c r="G303" t="n">
-        <v>-3931615.70365628</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9923,21 @@
         <v>49665.0144</v>
       </c>
       <c r="G304" t="n">
-        <v>-3981280.718056281</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9959,21 @@
         <v>1000</v>
       </c>
       <c r="G305" t="n">
-        <v>-3981280.718056281</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9995,21 @@
         <v>100</v>
       </c>
       <c r="G306" t="n">
-        <v>-3981180.718056281</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +10031,21 @@
         <v>7386.7394</v>
       </c>
       <c r="G307" t="n">
-        <v>-3981180.718056281</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +10067,21 @@
         <v>0.0153</v>
       </c>
       <c r="G308" t="n">
-        <v>-3981180.733356281</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +10103,21 @@
         <v>1399.1415</v>
       </c>
       <c r="G309" t="n">
-        <v>-3981180.733356281</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +10139,21 @@
         <v>5000</v>
       </c>
       <c r="G310" t="n">
-        <v>-3986180.733356281</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +10175,21 @@
         <v>50</v>
       </c>
       <c r="G311" t="n">
-        <v>-3986130.733356281</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +10211,21 @@
         <v>591.7430000000001</v>
       </c>
       <c r="G312" t="n">
-        <v>-3985538.990356281</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +10247,21 @@
         <v>351.2985</v>
       </c>
       <c r="G313" t="n">
-        <v>-3985890.288856281</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,22 +10283,21 @@
         <v>42</v>
       </c>
       <c r="G314" t="n">
-        <v>-3985848.288856281</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="J314" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+        <v>11.83</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10781,24 +10319,21 @@
         <v>106251.4374</v>
       </c>
       <c r="G315" t="n">
-        <v>-4092099.726256281</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="K315" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J315" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10820,24 +10355,21 @@
         <v>64062.3556</v>
       </c>
       <c r="G316" t="n">
-        <v>-4092099.726256281</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="K316" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J316" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10859,18 +10391,21 @@
         <v>46587.1191</v>
       </c>
       <c r="G317" t="n">
-        <v>-4138686.845356281</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10892,18 +10427,21 @@
         <v>50</v>
       </c>
       <c r="G318" t="n">
-        <v>-4138636.845356281</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10925,18 +10463,21 @@
         <v>15350.7812</v>
       </c>
       <c r="G319" t="n">
-        <v>-4153987.626556281</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10958,18 +10499,21 @@
         <v>14951.904</v>
       </c>
       <c r="G320" t="n">
-        <v>-4168939.530556281</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10991,18 +10535,21 @@
         <v>361.7908</v>
       </c>
       <c r="G321" t="n">
-        <v>-4168577.739756281</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11024,18 +10571,21 @@
         <v>43</v>
       </c>
       <c r="G322" t="n">
-        <v>-4168620.739756281</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11057,18 +10607,21 @@
         <v>17034.5687</v>
       </c>
       <c r="G323" t="n">
-        <v>-4168620.739756281</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11090,22 +10643,21 @@
         <v>101413.1346</v>
       </c>
       <c r="G324" t="n">
-        <v>-4067207.605156281</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J324" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+        <v>11.83</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11127,24 +10679,21 @@
         <v>9728.1441</v>
       </c>
       <c r="G325" t="n">
-        <v>-4076935.749256281</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K325" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J325" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11166,26 +10715,21 @@
         <v>43</v>
       </c>
       <c r="G326" t="n">
-        <v>-4076978.749256281</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J326" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K326" t="inlineStr">
+        <v>11.83</v>
+      </c>
+      <c r="J326" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11207,22 +10751,21 @@
         <v>16179.032</v>
       </c>
       <c r="G327" t="n">
-        <v>-4060799.717256281</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="J327" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+        <v>11.83</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11244,26 +10787,21 @@
         <v>855.5368</v>
       </c>
       <c r="G328" t="n">
-        <v>-4060799.717256281</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J328" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K328" t="inlineStr">
+        <v>11.83</v>
+      </c>
+      <c r="J328" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11285,26 +10823,21 @@
         <v>43</v>
       </c>
       <c r="G329" t="n">
-        <v>-4060756.717256281</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J329" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="K329" t="inlineStr">
+        <v>11.83</v>
+      </c>
+      <c r="J329" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11326,22 +10859,21 @@
         <v>474.9365</v>
       </c>
       <c r="G330" t="n">
-        <v>-4060281.780756281</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J330" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+        <v>11.83</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11363,26 +10895,21 @@
         <v>293.6315</v>
       </c>
       <c r="G331" t="n">
-        <v>-4060575.412256281</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J331" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K331" t="inlineStr">
+        <v>11.83</v>
+      </c>
+      <c r="J331" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11404,26 +10931,21 @@
         <v>6349.2833</v>
       </c>
       <c r="G332" t="n">
-        <v>-4066924.695556281</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J332" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K332" t="inlineStr">
+        <v>11.83</v>
+      </c>
+      <c r="J332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11445,26 +10967,21 @@
         <v>52469.6798</v>
       </c>
       <c r="G333" t="n">
-        <v>-4119394.375356281</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="J333" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K333" t="inlineStr">
+        <v>11.83</v>
+      </c>
+      <c r="J333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
